--- a/Parabolic SAR/Parabolic SAR.xlsx
+++ b/Parabolic SAR/Parabolic SAR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alireza/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alireza/Documents/Indicators/Parabolic SAR/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -300,10 +300,6 @@
   </si>
   <si>
     <t>SAR#</t>
-  </si>
-  <si>
-    <t>Calculated
-SAR</t>
   </si>
   <si>
     <t>Tentative
@@ -1336,8 +1332,8 @@
         </c:upDownBars>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1606313984"/>
-        <c:axId val="1605975648"/>
+        <c:axId val="-57474976"/>
+        <c:axId val="-57472080"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1383,380 +1379,380 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>AAPL!$K$11:$K$134</c:f>
+              <c:f>AAPL!$K$10:$K$134</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="124"/>
-                <c:pt idx="0">
-                  <c:v>156.729996</c:v>
-                </c:pt>
+                <c:ptCount val="125"/>
                 <c:pt idx="1">
                   <c:v>156.729996</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>156.729996</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>151.699997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>151.740005</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>151.87</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>152.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>152.57</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>153.56</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>154.49</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>155.86</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>157.78</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>159.91</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>161.79</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>163.44</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>164.9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>166.18</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>167.31</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>168.3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>169.17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>169.490005</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>169.490005</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>169.490005</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>170.22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>170.300003</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>171.08</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>171.75</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>172.33</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>172.729996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>172.889999</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>172.889999</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>172.889999</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>173.67</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>177.75</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>177.64</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>169.5</c:v>
+                  <c:v>177.635</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>169.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>170.03</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>170.83</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>171.89</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>173.43</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>175.23</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>177.16</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>179.13</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>182.23</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>185.32</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>197.690002</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>197.43</c:v>
-                </c:pt>
                 <c:pt idx="45">
-                  <c:v>197.17</c:v>
+                  <c:v>197.428</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>196.92</c:v>
+                  <c:v>197.171</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>196.67</c:v>
+                  <c:v>196.919</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>196.672</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>196.43</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>184.580002</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>184.82</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>185.05</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>185.53</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>186.41</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>187.73</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>188.94</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>190.05</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>191.07</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>192.01</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>192.88</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>193.93</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>195.16</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>196.53</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>198.33</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>200.16</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>201.66</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>202.119995</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>208.479996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>199.110001</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>199.110001</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>199.110001</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>199.43</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>199.75</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>200.06</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>200.36</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>215.309998</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>214.94</c:v>
-                </c:pt>
                 <c:pt idx="76">
+                  <c:v>214.937</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>214.05</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>212.18</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>210.42</c:v>
+                  <c:v>212.178</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>208.77</c:v>
+                  <c:v>210.418</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>207.21</c:v>
+                  <c:v>208.764</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>205.75</c:v>
+                  <c:v>207.209</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>205.747</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>203.71</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>201.84</c:v>
-                </c:pt>
                 <c:pt idx="84">
-                  <c:v>200.12</c:v>
+                  <c:v>201.836</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>197.89</c:v>
+                  <c:v>200.112</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>195.88</c:v>
+                  <c:v>197.882</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>194.07</c:v>
+                  <c:v>195.875</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>194.068</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>191.9</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>189.99</c:v>
-                </c:pt>
                 <c:pt idx="90">
-                  <c:v>187.89</c:v>
+                  <c:v>189.992</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>185.07</c:v>
+                  <c:v>187.892</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>185.072</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>170.270004</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>170.56</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>171.16</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>172.41</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>174.25</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>176.43</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>178.39</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>180.6</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>182.54</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>184.25</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>186.5</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>188.43</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>190.38</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>192.26</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>193.81</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>195.08</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>195.289993</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>196.55</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>197.050003</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>197.050003</c:v>
                 </c:pt>
                 <c:pt idx="112">
+                  <c:v>197.050003</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>198.54</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>199.73</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>205.080002</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>205.080002</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>204.95</c:v>
+                  <c:v>205.080002</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>204.82</c:v>
+                  <c:v>204.947</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>204.69</c:v>
+                  <c:v>204.816</c:v>
                 </c:pt>
                 <c:pt idx="119">
+                  <c:v>204.688</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>198.410004</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>198.56</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>198.86</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>199.15</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>199.43</c:v>
                 </c:pt>
               </c:numCache>
@@ -1772,11 +1768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1606313984"/>
-        <c:axId val="1605975648"/>
+        <c:axId val="-57474976"/>
+        <c:axId val="-57472080"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="1606313984"/>
+        <c:axId val="-57474976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1605975648"/>
+        <c:crossAx val="-57472080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1826,7 +1822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1605975648"/>
+        <c:axId val="-57472080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220.0"/>
@@ -1878,7 +1874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1606313984"/>
+        <c:crossAx val="-57474976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2482,16 +2478,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342901</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2502,7 +2498,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10731500" y="469900"/>
+          <a:off x="11544300" y="63500"/>
           <a:ext cx="6248400" cy="1905001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2632,16 +2628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2928,14 +2924,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="119" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -3046,17 +3043,15 @@
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>11</v>
@@ -3154,19 +3149,16 @@
         <v>25441500</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" ref="H12:H20" si="2">IF(H11&lt;0,IF(J12&lt;C12,1,H11-1),IF(J12&gt;D12,-1,H11+1))</f>
+        <f>IF(H11&lt;0,IF(J12&lt;=C12,1,H11-1),IF(J12&gt;=D12,-1,H11+1))</f>
         <v>-2</v>
       </c>
-      <c r="I12" s="3">
-        <f>ROUND(K11+M11*(L11-K11),2)</f>
-        <v>156.63</v>
-      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3">
-        <f t="shared" ref="J12:J20" si="3">IF(H11&lt;0,MAX(ROUND(K11+M11*(L11-K11),2),C11,C10),MIN(ROUND(K11+M11*(L11-K11),2),D11,D10))</f>
+        <f>IF(H11&lt;0,MAX(ROUND(K11+M11*(L11-K11),3),C11,C10),MIN(ROUND(K11+M11*(L11-K11),2),D11,D10))</f>
         <v>156.729996</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" ref="K12:K20" si="4">IF(H12=-1,MAX(L11,C12),IF(H12=1,MIN(L11,D12),J12))</f>
+        <f t="shared" ref="K12:K20" si="2">IF(H12=-1,MAX(L11,C12),IF(H12=1,MIN(L11,D12),J12))</f>
         <v>156.729996</v>
       </c>
       <c r="L12" s="3">
@@ -3201,19 +3193,16 @@
         <v>33535500</v>
       </c>
       <c r="H13" s="4">
+        <f t="shared" ref="H13:H76" si="3">IF(H12&lt;0,IF(J13&lt;=C13,1,H12-1),IF(J13&gt;=D13,-1,H12+1))</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <f t="shared" ref="J13:J76" si="4">IF(H12&lt;0,MAX(ROUND(K12+M12*(L12-K12),3),C12,C11),MIN(ROUND(K12+M12*(L12-K12),2),D12,D11))</f>
+        <v>156.62899999999999</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" ref="I13:I76" si="5">ROUND(K12+M12*(L12-K12),2)</f>
-        <v>156.63</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="3"/>
-        <v>156.63</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="4"/>
         <v>151.699997</v>
       </c>
       <c r="L13" s="3">
@@ -3248,19 +3237,16 @@
         <v>26192100</v>
       </c>
       <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <f t="shared" si="4"/>
+        <v>151.740005</v>
+      </c>
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="5"/>
-        <v>151.83000000000001</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="3"/>
-        <v>151.740005</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="4"/>
         <v>151.740005</v>
       </c>
       <c r="L14" s="3">
@@ -3295,19 +3281,16 @@
         <v>41587200</v>
       </c>
       <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <f t="shared" si="4"/>
+        <v>151.87</v>
+      </c>
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="5"/>
-        <v>151.87</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="3"/>
-        <v>151.87</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="4"/>
         <v>151.87</v>
       </c>
       <c r="L15" s="3">
@@ -3342,19 +3325,16 @@
         <v>61109800</v>
       </c>
       <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="5"/>
-        <v>152</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="4"/>
         <v>152</v>
       </c>
       <c r="L16" s="3">
@@ -3389,19 +3369,16 @@
         <v>40739600</v>
       </c>
       <c r="H17" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <f t="shared" si="4"/>
+        <v>152.57</v>
+      </c>
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="5"/>
-        <v>152.57</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="3"/>
-        <v>152.57</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="4"/>
         <v>152.57</v>
       </c>
       <c r="L17" s="3">
@@ -3436,19 +3413,16 @@
         <v>32668100</v>
       </c>
       <c r="H18" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <f t="shared" si="4"/>
+        <v>153.56</v>
+      </c>
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="5"/>
-        <v>153.56</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="3"/>
-        <v>153.56</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="4"/>
         <v>153.56</v>
       </c>
       <c r="L18" s="3">
@@ -3483,19 +3457,16 @@
         <v>31495500</v>
       </c>
       <c r="H19" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <f t="shared" si="4"/>
+        <v>154.49</v>
+      </c>
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="5"/>
-        <v>154.49</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="3"/>
-        <v>154.49</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="4"/>
         <v>154.49</v>
       </c>
       <c r="L19" s="3">
@@ -3530,19 +3501,16 @@
         <v>36101600</v>
       </c>
       <c r="H20" s="4">
+        <f>IF(H19&lt;0,IF(J20&lt;=C20,1,H19-1),IF(J20&gt;=D20,-1,H19+1))</f>
+        <v>8</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <f t="shared" si="4"/>
+        <v>155.86000000000001</v>
+      </c>
+      <c r="K20" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="5"/>
-        <v>155.86000000000001</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="3"/>
-        <v>155.86000000000001</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="4"/>
         <v>155.86000000000001</v>
       </c>
       <c r="L20" s="3">
@@ -3577,27 +3545,24 @@
         <v>28239600</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" ref="H21:H84" si="6">IF(H20&lt;0,IF(J21&lt;C21,1,H20-1),IF(J21&gt;D21,-1,H20+1))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I21" s="3">
-        <f t="shared" si="5"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
+        <f t="shared" si="4"/>
         <v>157.78</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" ref="J21:J84" si="7">IF(H20&lt;0,MAX(ROUND(K20+M20*(L20-K20),2),C20,C19),MIN(ROUND(K20+M20*(L20-K20),2),D20,D19))</f>
+      <c r="K21" s="3">
+        <f t="shared" ref="K21:K84" si="5">IF(H21=-1,MAX(L20,C21),IF(H21=1,MIN(L20,D21),J21))</f>
         <v>157.78</v>
       </c>
-      <c r="K21" s="3">
-        <f t="shared" ref="K21:K84" si="8">IF(H21=-1,MAX(L20,C21),IF(H21=1,MIN(L20,D21),J21))</f>
-        <v>157.78</v>
-      </c>
       <c r="L21" s="3">
-        <f t="shared" ref="L21:L84" si="9">IF(H21&lt;0,IF(H21=-1,D21,MIN(D21,L20)),IF(H21=1,C21,MAX(C21,L20)))</f>
+        <f t="shared" ref="L21:L84" si="6">IF(H21&lt;0,IF(H21=-1,D21,MIN(D21,L20)),IF(H21=1,C21,MAX(C21,L20)))</f>
         <v>175.570007</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" ref="M21:M84" si="10">IF(ABS(H21)=1,$B$4,IF(L20=L21,M20,MIN($B$6,M20+$B$5)))</f>
+        <f t="shared" ref="M21:M84" si="7">IF(ABS(H21)=1,$B$4,IF(L20=L21,M20,MIN($B$6,M20+$B$5)))</f>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -3624,27 +3589,24 @@
         <v>31741700</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <f t="shared" si="4"/>
+        <v>159.91</v>
+      </c>
+      <c r="K22" s="3">
         <f t="shared" si="5"/>
         <v>159.91</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
+        <f t="shared" si="6"/>
+        <v>175.570007</v>
+      </c>
+      <c r="M22" s="3">
         <f t="shared" si="7"/>
-        <v>159.91</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="8"/>
-        <v>159.91</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -3671,27 +3633,24 @@
         <v>23820000</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <f t="shared" si="4"/>
+        <v>161.79</v>
+      </c>
+      <c r="K23" s="3">
         <f t="shared" si="5"/>
         <v>161.79</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
+        <f t="shared" si="6"/>
+        <v>175.570007</v>
+      </c>
+      <c r="M23" s="3">
         <f t="shared" si="7"/>
-        <v>161.79</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="8"/>
-        <v>161.79</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M23" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -3718,27 +3677,24 @@
         <v>20993400</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <f t="shared" si="4"/>
+        <v>163.44</v>
+      </c>
+      <c r="K24" s="3">
         <f t="shared" si="5"/>
         <v>163.44</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
+        <f t="shared" si="6"/>
+        <v>175.570007</v>
+      </c>
+      <c r="M24" s="3">
         <f t="shared" si="7"/>
-        <v>163.44</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="8"/>
-        <v>163.44</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M24" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -3765,27 +3721,24 @@
         <v>22283500</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <f t="shared" si="4"/>
+        <v>164.9</v>
+      </c>
+      <c r="K25" s="3">
         <f t="shared" si="5"/>
         <v>164.9</v>
       </c>
-      <c r="J25" s="3">
+      <c r="L25" s="3">
+        <f t="shared" si="6"/>
+        <v>175.570007</v>
+      </c>
+      <c r="M25" s="3">
         <f t="shared" si="7"/>
-        <v>164.9</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="8"/>
-        <v>164.9</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M25" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -3812,27 +3765,24 @@
         <v>22490200</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <f t="shared" si="4"/>
+        <v>166.18</v>
+      </c>
+      <c r="K26" s="3">
         <f t="shared" si="5"/>
         <v>166.18</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
+        <f t="shared" si="6"/>
+        <v>175.570007</v>
+      </c>
+      <c r="M26" s="3">
         <f t="shared" si="7"/>
-        <v>166.18</v>
-      </c>
-      <c r="K26" s="3">
-        <f t="shared" si="8"/>
-        <v>166.18</v>
-      </c>
-      <c r="L26" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M26" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -3859,27 +3809,24 @@
         <v>21835700</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <f t="shared" si="4"/>
+        <v>167.31</v>
+      </c>
+      <c r="K27" s="3">
         <f t="shared" si="5"/>
         <v>167.31</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
+        <f t="shared" si="6"/>
+        <v>175.570007</v>
+      </c>
+      <c r="M27" s="3">
         <f t="shared" si="7"/>
-        <v>167.31</v>
-      </c>
-      <c r="K27" s="3">
-        <f t="shared" si="8"/>
-        <v>167.31</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M27" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -3906,27 +3853,24 @@
         <v>24626800</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
+        <f t="shared" si="4"/>
+        <v>168.3</v>
+      </c>
+      <c r="K28" s="3">
         <f t="shared" si="5"/>
         <v>168.3</v>
       </c>
-      <c r="J28" s="3">
+      <c r="L28" s="3">
+        <f t="shared" si="6"/>
+        <v>175.570007</v>
+      </c>
+      <c r="M28" s="3">
         <f t="shared" si="7"/>
-        <v>168.3</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="8"/>
-        <v>168.3</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -3953,27 +3897,24 @@
         <v>18972800</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
+        <f t="shared" si="4"/>
+        <v>169.17</v>
+      </c>
+      <c r="K29" s="3">
         <f t="shared" si="5"/>
         <v>169.17</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
+        <f t="shared" si="6"/>
+        <v>175.570007</v>
+      </c>
+      <c r="M29" s="3">
         <f t="shared" si="7"/>
-        <v>169.17</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" si="8"/>
-        <v>169.17</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -4000,27 +3941,24 @@
         <v>26114400</v>
       </c>
       <c r="H30" s="4">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <f t="shared" si="4"/>
+        <v>169.490005</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="5"/>
+        <v>169.490005</v>
+      </c>
+      <c r="L30" s="3">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" si="5"/>
-        <v>169.94</v>
-      </c>
-      <c r="J30" s="3">
+        <v>175.570007</v>
+      </c>
+      <c r="M30" s="3">
         <f t="shared" si="7"/>
-        <v>169.490005</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" si="8"/>
-        <v>169.490005</v>
-      </c>
-      <c r="L30" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M30" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -4047,27 +3985,24 @@
         <v>17249700</v>
       </c>
       <c r="H31" s="4">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <f t="shared" si="4"/>
+        <v>169.490005</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="5"/>
+        <v>169.490005</v>
+      </c>
+      <c r="L31" s="3">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" si="5"/>
-        <v>170.22</v>
-      </c>
-      <c r="J31" s="3">
+        <v>175.570007</v>
+      </c>
+      <c r="M31" s="3">
         <f t="shared" si="7"/>
-        <v>169.490005</v>
-      </c>
-      <c r="K31" s="3">
-        <f t="shared" si="8"/>
-        <v>169.490005</v>
-      </c>
-      <c r="L31" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -4094,27 +4029,24 @@
         <v>18913200</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <f t="shared" si="4"/>
+        <v>170.22</v>
+      </c>
+      <c r="K32" s="3">
         <f t="shared" si="5"/>
         <v>170.22</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
+        <f t="shared" si="6"/>
+        <v>175.570007</v>
+      </c>
+      <c r="M32" s="3">
         <f t="shared" si="7"/>
-        <v>170.22</v>
-      </c>
-      <c r="K32" s="3">
-        <f t="shared" si="8"/>
-        <v>170.22</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="9"/>
-        <v>175.570007</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -4141,27 +4073,24 @@
         <v>21873400</v>
       </c>
       <c r="H33" s="4">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
+        <f t="shared" si="4"/>
+        <v>170.300003</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="5"/>
+        <v>170.300003</v>
+      </c>
+      <c r="L33" s="3">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="5"/>
-        <v>170.86</v>
-      </c>
-      <c r="J33" s="3">
+        <v>175.86999499999999</v>
+      </c>
+      <c r="M33" s="3">
         <f t="shared" si="7"/>
-        <v>170.300003</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" si="8"/>
-        <v>170.300003</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="9"/>
-        <v>175.86999499999999</v>
-      </c>
-      <c r="M33" s="3">
-        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4188,27 +4117,24 @@
         <v>17070200</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <f t="shared" si="4"/>
+        <v>171.08</v>
+      </c>
+      <c r="K34" s="3">
         <f t="shared" si="5"/>
         <v>171.08</v>
       </c>
-      <c r="J34" s="3">
+      <c r="L34" s="3">
+        <f t="shared" si="6"/>
+        <v>175.86999499999999</v>
+      </c>
+      <c r="M34" s="3">
         <f t="shared" si="7"/>
-        <v>171.08</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="8"/>
-        <v>171.08</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="9"/>
-        <v>175.86999499999999</v>
-      </c>
-      <c r="M34" s="3">
-        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4235,27 +4161,24 @@
         <v>27835400</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <f t="shared" si="4"/>
+        <v>171.75</v>
+      </c>
+      <c r="K35" s="3">
         <f t="shared" si="5"/>
         <v>171.75</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
+        <f t="shared" si="6"/>
+        <v>175.86999499999999</v>
+      </c>
+      <c r="M35" s="3">
         <f t="shared" si="7"/>
-        <v>171.75</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="8"/>
-        <v>171.75</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="9"/>
-        <v>175.86999499999999</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4282,27 +4205,24 @@
         <v>28215400</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <f t="shared" si="4"/>
+        <v>172.33</v>
+      </c>
+      <c r="K36" s="3">
         <f t="shared" si="5"/>
         <v>172.33</v>
       </c>
-      <c r="J36" s="3">
+      <c r="L36" s="3">
+        <f t="shared" si="6"/>
+        <v>175.86999499999999</v>
+      </c>
+      <c r="M36" s="3">
         <f t="shared" si="7"/>
-        <v>172.33</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="8"/>
-        <v>172.33</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="9"/>
-        <v>175.86999499999999</v>
-      </c>
-      <c r="M36" s="3">
-        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4329,27 +4249,24 @@
         <v>25886200</v>
       </c>
       <c r="H37" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
+        <f t="shared" si="4"/>
+        <v>172.729996</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="5"/>
+        <v>172.729996</v>
+      </c>
+      <c r="L37" s="3">
         <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="5"/>
-        <v>172.83</v>
-      </c>
-      <c r="J37" s="3">
+        <v>175.86999499999999</v>
+      </c>
+      <c r="M37" s="3">
         <f t="shared" si="7"/>
-        <v>172.729996</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="8"/>
-        <v>172.729996</v>
-      </c>
-      <c r="L37" s="3">
-        <f t="shared" si="9"/>
-        <v>175.86999499999999</v>
-      </c>
-      <c r="M37" s="3">
-        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4376,27 +4293,24 @@
         <v>27436200</v>
       </c>
       <c r="H38" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <f t="shared" si="4"/>
+        <v>172.88999899999999</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="5"/>
+        <v>172.88999899999999</v>
+      </c>
+      <c r="L38" s="3">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="5"/>
-        <v>173.17</v>
-      </c>
-      <c r="J38" s="3">
+        <v>177.75</v>
+      </c>
+      <c r="M38" s="3">
         <f t="shared" si="7"/>
-        <v>172.88999899999999</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="8"/>
-        <v>172.88999899999999</v>
-      </c>
-      <c r="L38" s="3">
-        <f t="shared" si="9"/>
-        <v>177.75</v>
-      </c>
-      <c r="M38" s="3">
-        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
     </row>
@@ -4423,27 +4337,24 @@
         <v>19737400</v>
       </c>
       <c r="H39" s="4">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
+        <f t="shared" si="4"/>
+        <v>172.88999899999999</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="5"/>
+        <v>172.88999899999999</v>
+      </c>
+      <c r="L39" s="3">
         <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="5"/>
-        <v>173.67</v>
-      </c>
-      <c r="J39" s="3">
+        <v>177.75</v>
+      </c>
+      <c r="M39" s="3">
         <f t="shared" si="7"/>
-        <v>172.88999899999999</v>
-      </c>
-      <c r="K39" s="3">
-        <f t="shared" si="8"/>
-        <v>172.88999899999999</v>
-      </c>
-      <c r="L39" s="3">
-        <f t="shared" si="9"/>
-        <v>177.75</v>
-      </c>
-      <c r="M39" s="3">
-        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
     </row>
@@ -4470,27 +4381,24 @@
         <v>20810400</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
+        <f t="shared" si="4"/>
+        <v>173.67</v>
+      </c>
+      <c r="K40" s="3">
         <f t="shared" si="5"/>
         <v>173.67</v>
       </c>
-      <c r="J40" s="3">
+      <c r="L40" s="3">
+        <f t="shared" si="6"/>
+        <v>177.75</v>
+      </c>
+      <c r="M40" s="3">
         <f t="shared" si="7"/>
-        <v>173.67</v>
-      </c>
-      <c r="K40" s="3">
-        <f t="shared" si="8"/>
-        <v>173.67</v>
-      </c>
-      <c r="L40" s="3">
-        <f t="shared" si="9"/>
-        <v>177.75</v>
-      </c>
-      <c r="M40" s="3">
-        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
     </row>
@@ -4517,27 +4425,24 @@
         <v>24796400</v>
       </c>
       <c r="H41" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
+        <f t="shared" si="4"/>
+        <v>173.94000199999999</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="5"/>
+        <v>177.75</v>
+      </c>
+      <c r="L41" s="3">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="5"/>
-        <v>174.32</v>
-      </c>
-      <c r="J41" s="3">
+        <v>172.020004</v>
+      </c>
+      <c r="M41" s="3">
         <f t="shared" si="7"/>
-        <v>173.94000199999999</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" si="8"/>
-        <v>177.75</v>
-      </c>
-      <c r="L41" s="3">
-        <f t="shared" si="9"/>
-        <v>172.020004</v>
-      </c>
-      <c r="M41" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -4564,27 +4469,24 @@
         <v>23999400</v>
       </c>
       <c r="H42" s="4">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
+        <f t="shared" si="4"/>
+        <v>177.63499999999999</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="5"/>
+        <v>177.63499999999999</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="5"/>
-        <v>177.64</v>
-      </c>
-      <c r="J42" s="3">
+        <v>169.5</v>
+      </c>
+      <c r="M42" s="3">
         <f t="shared" si="7"/>
-        <v>177.64</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" si="8"/>
-        <v>177.64</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="9"/>
-        <v>169.5</v>
-      </c>
-      <c r="M42" s="3">
-        <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
     </row>
@@ -4611,27 +4513,24 @@
         <v>32011000</v>
       </c>
       <c r="H43" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
+        <f t="shared" si="4"/>
+        <v>177.31</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="5"/>
+        <v>169.5</v>
+      </c>
+      <c r="L43" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="5"/>
-        <v>177.31</v>
-      </c>
-      <c r="J43" s="3">
+        <v>179.11999499999999</v>
+      </c>
+      <c r="M43" s="3">
         <f t="shared" si="7"/>
-        <v>177.31</v>
-      </c>
-      <c r="K43" s="3">
-        <f t="shared" si="8"/>
-        <v>169.5</v>
-      </c>
-      <c r="L43" s="3">
-        <f t="shared" si="9"/>
-        <v>179.11999499999999</v>
-      </c>
-      <c r="M43" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -4658,27 +4557,24 @@
         <v>32467600</v>
       </c>
       <c r="H44" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
+        <f t="shared" si="4"/>
+        <v>169.5</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="5"/>
+        <v>169.5</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="5"/>
-        <v>169.69</v>
-      </c>
-      <c r="J44" s="3">
+        <v>182.66999799999999</v>
+      </c>
+      <c r="M44" s="3">
         <f t="shared" si="7"/>
-        <v>169.5</v>
-      </c>
-      <c r="K44" s="3">
-        <f t="shared" si="8"/>
-        <v>169.5</v>
-      </c>
-      <c r="L44" s="3">
-        <f t="shared" si="9"/>
-        <v>182.66999799999999</v>
-      </c>
-      <c r="M44" s="3">
-        <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
     </row>
@@ -4705,27 +4601,24 @@
         <v>31032500</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
+        <f t="shared" si="4"/>
+        <v>170.03</v>
+      </c>
+      <c r="K45" s="3">
         <f t="shared" si="5"/>
         <v>170.03</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
+        <f t="shared" si="6"/>
+        <v>183.300003</v>
+      </c>
+      <c r="M45" s="3">
         <f t="shared" si="7"/>
-        <v>170.03</v>
-      </c>
-      <c r="K45" s="3">
-        <f t="shared" si="8"/>
-        <v>170.03</v>
-      </c>
-      <c r="L45" s="3">
-        <f t="shared" si="9"/>
-        <v>183.300003</v>
-      </c>
-      <c r="M45" s="3">
-        <f t="shared" si="10"/>
         <v>0.06</v>
       </c>
     </row>
@@ -4752,27 +4645,24 @@
         <v>23579500</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
+        <f t="shared" si="4"/>
+        <v>170.83</v>
+      </c>
+      <c r="K46" s="3">
         <f t="shared" si="5"/>
         <v>170.83</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
+        <f t="shared" si="6"/>
+        <v>184.10000600000001</v>
+      </c>
+      <c r="M46" s="3">
         <f t="shared" si="7"/>
-        <v>170.83</v>
-      </c>
-      <c r="K46" s="3">
-        <f t="shared" si="8"/>
-        <v>170.83</v>
-      </c>
-      <c r="L46" s="3">
-        <f t="shared" si="9"/>
-        <v>184.10000600000001</v>
-      </c>
-      <c r="M46" s="3">
-        <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
     </row>
@@ -4799,27 +4689,24 @@
         <v>39042900</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3"/>
+      <c r="J47" s="3">
+        <f t="shared" si="4"/>
+        <v>171.89</v>
+      </c>
+      <c r="K47" s="3">
         <f t="shared" si="5"/>
         <v>171.89</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
+        <f t="shared" si="6"/>
+        <v>187.33000200000001</v>
+      </c>
+      <c r="M47" s="3">
         <f t="shared" si="7"/>
-        <v>171.89</v>
-      </c>
-      <c r="K47" s="3">
-        <f t="shared" si="8"/>
-        <v>171.89</v>
-      </c>
-      <c r="L47" s="3">
-        <f t="shared" si="9"/>
-        <v>187.33000200000001</v>
-      </c>
-      <c r="M47" s="3">
-        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
@@ -4846,27 +4733,24 @@
         <v>26219800</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3"/>
+      <c r="J48" s="3">
+        <f t="shared" si="4"/>
+        <v>173.43</v>
+      </c>
+      <c r="K48" s="3">
         <f t="shared" si="5"/>
         <v>173.43</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
+        <f t="shared" si="6"/>
+        <v>188.38999899999999</v>
+      </c>
+      <c r="M48" s="3">
         <f t="shared" si="7"/>
-        <v>173.43</v>
-      </c>
-      <c r="K48" s="3">
-        <f t="shared" si="8"/>
-        <v>173.43</v>
-      </c>
-      <c r="L48" s="3">
-        <f t="shared" si="9"/>
-        <v>188.38999899999999</v>
-      </c>
-      <c r="M48" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -4893,27 +4777,24 @@
         <v>31646400</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3"/>
+      <c r="J49" s="3">
+        <f t="shared" si="4"/>
+        <v>175.23</v>
+      </c>
+      <c r="K49" s="3">
         <f t="shared" si="5"/>
         <v>175.23</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
+        <f t="shared" si="6"/>
+        <v>188.990005</v>
+      </c>
+      <c r="M49" s="3">
         <f t="shared" si="7"/>
-        <v>175.23</v>
-      </c>
-      <c r="K49" s="3">
-        <f t="shared" si="8"/>
-        <v>175.23</v>
-      </c>
-      <c r="L49" s="3">
-        <f t="shared" si="9"/>
-        <v>188.990005</v>
-      </c>
-      <c r="M49" s="3">
-        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4940,27 +4821,24 @@
         <v>31035200</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <f t="shared" si="4"/>
+        <v>177.16</v>
+      </c>
+      <c r="K50" s="3">
         <f t="shared" si="5"/>
         <v>177.16</v>
       </c>
-      <c r="J50" s="3">
+      <c r="L50" s="3">
+        <f t="shared" si="6"/>
+        <v>189.490005</v>
+      </c>
+      <c r="M50" s="3">
         <f t="shared" si="7"/>
-        <v>177.16</v>
-      </c>
-      <c r="K50" s="3">
-        <f t="shared" si="8"/>
-        <v>177.16</v>
-      </c>
-      <c r="L50" s="3">
-        <f t="shared" si="9"/>
-        <v>189.490005</v>
-      </c>
-      <c r="M50" s="3">
-        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
     </row>
@@ -4987,27 +4865,24 @@
         <v>51034200</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
+        <f t="shared" si="4"/>
+        <v>179.13</v>
+      </c>
+      <c r="K51" s="3">
         <f t="shared" si="5"/>
         <v>179.13</v>
       </c>
-      <c r="J51" s="3">
+      <c r="L51" s="3">
+        <f t="shared" si="6"/>
+        <v>196.33000200000001</v>
+      </c>
+      <c r="M51" s="3">
         <f t="shared" si="7"/>
-        <v>179.13</v>
-      </c>
-      <c r="K51" s="3">
-        <f t="shared" si="8"/>
-        <v>179.13</v>
-      </c>
-      <c r="L51" s="3">
-        <f t="shared" si="9"/>
-        <v>196.33000200000001</v>
-      </c>
-      <c r="M51" s="3">
-        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
     </row>
@@ -5034,27 +4909,24 @@
         <v>42407700</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
+        <f t="shared" si="4"/>
+        <v>182.23</v>
+      </c>
+      <c r="K52" s="3">
         <f t="shared" si="5"/>
         <v>182.23</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
+        <f t="shared" si="6"/>
+        <v>197.69000199999999</v>
+      </c>
+      <c r="M52" s="3">
         <f t="shared" si="7"/>
-        <v>182.23</v>
-      </c>
-      <c r="K52" s="3">
-        <f t="shared" si="8"/>
-        <v>182.23</v>
-      </c>
-      <c r="L52" s="3">
-        <f t="shared" si="9"/>
-        <v>197.69000199999999</v>
-      </c>
-      <c r="M52" s="3">
-        <f t="shared" si="10"/>
         <v>0.19999999999999998</v>
       </c>
     </row>
@@ -5081,27 +4953,24 @@
         <v>43845300</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3">
+        <f t="shared" si="4"/>
+        <v>185.32</v>
+      </c>
+      <c r="K53" s="3">
         <f t="shared" si="5"/>
         <v>185.32</v>
       </c>
-      <c r="J53" s="3">
+      <c r="L53" s="3">
+        <f t="shared" si="6"/>
+        <v>197.69000199999999</v>
+      </c>
+      <c r="M53" s="3">
         <f t="shared" si="7"/>
-        <v>185.32</v>
-      </c>
-      <c r="K53" s="3">
-        <f t="shared" si="8"/>
-        <v>185.32</v>
-      </c>
-      <c r="L53" s="3">
-        <f t="shared" si="9"/>
-        <v>197.69000199999999</v>
-      </c>
-      <c r="M53" s="3">
-        <f t="shared" si="10"/>
         <v>0.19999999999999998</v>
       </c>
     </row>
@@ -5128,27 +4997,24 @@
         <v>49800500</v>
       </c>
       <c r="H54" s="4">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
+        <f t="shared" si="4"/>
+        <v>186.60000600000001</v>
+      </c>
+      <c r="K54" s="3">
+        <f t="shared" si="5"/>
+        <v>197.69000199999999</v>
+      </c>
+      <c r="L54" s="3">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="5"/>
-        <v>187.79</v>
-      </c>
-      <c r="J54" s="3">
+        <v>184.58000200000001</v>
+      </c>
+      <c r="M54" s="3">
         <f t="shared" si="7"/>
-        <v>186.60000600000001</v>
-      </c>
-      <c r="K54" s="3">
-        <f t="shared" si="8"/>
-        <v>197.69000199999999</v>
-      </c>
-      <c r="L54" s="3">
-        <f t="shared" si="9"/>
-        <v>184.58000200000001</v>
-      </c>
-      <c r="M54" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -5175,27 +5041,24 @@
         <v>29848400</v>
       </c>
       <c r="H55" s="4">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
+        <f t="shared" si="4"/>
+        <v>197.428</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="5"/>
+        <v>197.428</v>
+      </c>
+      <c r="L55" s="3">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="I55" s="3">
-        <f t="shared" si="5"/>
-        <v>197.43</v>
-      </c>
-      <c r="J55" s="3">
+        <v>184.58000200000001</v>
+      </c>
+      <c r="M55" s="3">
         <f t="shared" si="7"/>
-        <v>197.43</v>
-      </c>
-      <c r="K55" s="3">
-        <f t="shared" si="8"/>
-        <v>197.43</v>
-      </c>
-      <c r="L55" s="3">
-        <f t="shared" si="9"/>
-        <v>184.58000200000001</v>
-      </c>
-      <c r="M55" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -5222,27 +5085,24 @@
         <v>20780400</v>
       </c>
       <c r="H56" s="4">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3">
+        <f t="shared" si="4"/>
+        <v>197.17099999999999</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="5"/>
+        <v>197.17099999999999</v>
+      </c>
+      <c r="L56" s="3">
         <f t="shared" si="6"/>
-        <v>-3</v>
-      </c>
-      <c r="I56" s="3">
-        <f t="shared" si="5"/>
-        <v>197.17</v>
-      </c>
-      <c r="J56" s="3">
+        <v>184.58000200000001</v>
+      </c>
+      <c r="M56" s="3">
         <f t="shared" si="7"/>
-        <v>197.17</v>
-      </c>
-      <c r="K56" s="3">
-        <f t="shared" si="8"/>
-        <v>197.17</v>
-      </c>
-      <c r="L56" s="3">
-        <f t="shared" si="9"/>
-        <v>184.58000200000001</v>
-      </c>
-      <c r="M56" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -5269,27 +5129,24 @@
         <v>23564000</v>
       </c>
       <c r="H57" s="4">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
+        <f t="shared" si="4"/>
+        <v>196.91900000000001</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="5"/>
+        <v>196.91900000000001</v>
+      </c>
+      <c r="L57" s="3">
         <f t="shared" si="6"/>
-        <v>-4</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="5"/>
-        <v>196.92</v>
-      </c>
-      <c r="J57" s="3">
+        <v>184.58000200000001</v>
+      </c>
+      <c r="M57" s="3">
         <f t="shared" si="7"/>
-        <v>196.92</v>
-      </c>
-      <c r="K57" s="3">
-        <f t="shared" si="8"/>
-        <v>196.92</v>
-      </c>
-      <c r="L57" s="3">
-        <f t="shared" si="9"/>
-        <v>184.58000200000001</v>
-      </c>
-      <c r="M57" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -5316,27 +5173,24 @@
         <v>27862000</v>
       </c>
       <c r="H58" s="4">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3">
+        <f t="shared" si="4"/>
+        <v>196.672</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="5"/>
+        <v>196.672</v>
+      </c>
+      <c r="L58" s="3">
         <f t="shared" si="6"/>
-        <v>-5</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="5"/>
-        <v>196.67</v>
-      </c>
-      <c r="J58" s="3">
+        <v>184.58000200000001</v>
+      </c>
+      <c r="M58" s="3">
         <f t="shared" si="7"/>
-        <v>196.67</v>
-      </c>
-      <c r="K58" s="3">
-        <f t="shared" si="8"/>
-        <v>196.67</v>
-      </c>
-      <c r="L58" s="3">
-        <f t="shared" si="9"/>
-        <v>184.58000200000001</v>
-      </c>
-      <c r="M58" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -5363,27 +5217,24 @@
         <v>22765700</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
+        <f t="shared" si="4"/>
+        <v>196.43</v>
+      </c>
+      <c r="K59" s="3">
         <f t="shared" si="5"/>
         <v>196.43</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
+        <f t="shared" si="6"/>
+        <v>184.58000200000001</v>
+      </c>
+      <c r="M59" s="3">
         <f t="shared" si="7"/>
-        <v>196.43</v>
-      </c>
-      <c r="K59" s="3">
-        <f t="shared" si="8"/>
-        <v>196.43</v>
-      </c>
-      <c r="L59" s="3">
-        <f t="shared" si="9"/>
-        <v>184.58000200000001</v>
-      </c>
-      <c r="M59" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -5410,27 +5261,24 @@
         <v>23271800</v>
       </c>
       <c r="H60" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
+        <f t="shared" si="4"/>
+        <v>196.19300000000001</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="5"/>
+        <v>184.58000200000001</v>
+      </c>
+      <c r="L60" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="5"/>
-        <v>196.19</v>
-      </c>
-      <c r="J60" s="3">
+        <v>196.5</v>
+      </c>
+      <c r="M60" s="3">
         <f t="shared" si="7"/>
-        <v>196.19</v>
-      </c>
-      <c r="K60" s="3">
-        <f t="shared" si="8"/>
-        <v>184.58000200000001</v>
-      </c>
-      <c r="L60" s="3">
-        <f t="shared" si="9"/>
-        <v>196.5</v>
-      </c>
-      <c r="M60" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -5457,27 +5305,24 @@
         <v>19114300</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
+        <f t="shared" si="4"/>
+        <v>184.82</v>
+      </c>
+      <c r="K61" s="3">
         <f t="shared" si="5"/>
         <v>184.82</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
+        <f t="shared" si="6"/>
+        <v>196.5</v>
+      </c>
+      <c r="M61" s="3">
         <f t="shared" si="7"/>
-        <v>184.82</v>
-      </c>
-      <c r="K61" s="3">
-        <f t="shared" si="8"/>
-        <v>184.82</v>
-      </c>
-      <c r="L61" s="3">
-        <f t="shared" si="9"/>
-        <v>196.5</v>
-      </c>
-      <c r="M61" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -5504,27 +5349,24 @@
         <v>18526600</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3"/>
+      <c r="J62" s="3">
+        <f t="shared" si="4"/>
+        <v>185.05</v>
+      </c>
+      <c r="K62" s="3">
         <f t="shared" si="5"/>
         <v>185.05</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
+        <f t="shared" si="6"/>
+        <v>197.10000600000001</v>
+      </c>
+      <c r="M62" s="3">
         <f t="shared" si="7"/>
-        <v>185.05</v>
-      </c>
-      <c r="K62" s="3">
-        <f t="shared" si="8"/>
-        <v>185.05</v>
-      </c>
-      <c r="L62" s="3">
-        <f t="shared" si="9"/>
-        <v>197.10000600000001</v>
-      </c>
-      <c r="M62" s="3">
-        <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
     </row>
@@ -5551,27 +5393,24 @@
         <v>25881700</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
+        <f t="shared" si="4"/>
+        <v>185.53</v>
+      </c>
+      <c r="K63" s="3">
         <f t="shared" si="5"/>
         <v>185.53</v>
       </c>
-      <c r="J63" s="3">
+      <c r="L63" s="3">
+        <f t="shared" si="6"/>
+        <v>200.229996</v>
+      </c>
+      <c r="M63" s="3">
         <f t="shared" si="7"/>
-        <v>185.53</v>
-      </c>
-      <c r="K63" s="3">
-        <f t="shared" si="8"/>
-        <v>185.53</v>
-      </c>
-      <c r="L63" s="3">
-        <f t="shared" si="9"/>
-        <v>200.229996</v>
-      </c>
-      <c r="M63" s="3">
-        <f t="shared" si="10"/>
         <v>0.06</v>
       </c>
     </row>
@@ -5598,27 +5437,24 @@
         <v>35768200</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
+        <f t="shared" si="4"/>
+        <v>186.41</v>
+      </c>
+      <c r="K64" s="3">
         <f t="shared" si="5"/>
         <v>186.41</v>
       </c>
-      <c r="J64" s="3">
+      <c r="L64" s="3">
+        <f t="shared" si="6"/>
+        <v>202.85000600000001</v>
+      </c>
+      <c r="M64" s="3">
         <f t="shared" si="7"/>
-        <v>186.41</v>
-      </c>
-      <c r="K64" s="3">
-        <f t="shared" si="8"/>
-        <v>186.41</v>
-      </c>
-      <c r="L64" s="3">
-        <f t="shared" si="9"/>
-        <v>202.85000600000001</v>
-      </c>
-      <c r="M64" s="3">
-        <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
     </row>
@@ -5645,27 +5481,24 @@
         <v>21695300</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
+        <f t="shared" si="4"/>
+        <v>187.73</v>
+      </c>
+      <c r="K65" s="3">
         <f t="shared" si="5"/>
         <v>187.73</v>
       </c>
-      <c r="J65" s="3">
+      <c r="L65" s="3">
+        <f t="shared" si="6"/>
+        <v>202.85000600000001</v>
+      </c>
+      <c r="M65" s="3">
         <f t="shared" si="7"/>
-        <v>187.73</v>
-      </c>
-      <c r="K65" s="3">
-        <f t="shared" si="8"/>
-        <v>187.73</v>
-      </c>
-      <c r="L65" s="3">
-        <f t="shared" si="9"/>
-        <v>202.85000600000001</v>
-      </c>
-      <c r="M65" s="3">
-        <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
     </row>
@@ -5692,27 +5525,24 @@
         <v>20900800</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3"/>
+      <c r="J66" s="3">
+        <f t="shared" si="4"/>
+        <v>188.94</v>
+      </c>
+      <c r="K66" s="3">
         <f t="shared" si="5"/>
         <v>188.94</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
+        <f t="shared" si="6"/>
+        <v>202.85000600000001</v>
+      </c>
+      <c r="M66" s="3">
         <f t="shared" si="7"/>
-        <v>188.94</v>
-      </c>
-      <c r="K66" s="3">
-        <f t="shared" si="8"/>
-        <v>188.94</v>
-      </c>
-      <c r="L66" s="3">
-        <f t="shared" si="9"/>
-        <v>202.85000600000001</v>
-      </c>
-      <c r="M66" s="3">
-        <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
     </row>
@@ -5739,27 +5569,24 @@
         <v>27760700</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3">
+        <f t="shared" si="4"/>
+        <v>190.05</v>
+      </c>
+      <c r="K67" s="3">
         <f t="shared" si="5"/>
         <v>190.05</v>
       </c>
-      <c r="J67" s="3">
+      <c r="L67" s="3">
+        <f t="shared" si="6"/>
+        <v>202.85000600000001</v>
+      </c>
+      <c r="M67" s="3">
         <f t="shared" si="7"/>
-        <v>190.05</v>
-      </c>
-      <c r="K67" s="3">
-        <f t="shared" si="8"/>
-        <v>190.05</v>
-      </c>
-      <c r="L67" s="3">
-        <f t="shared" si="9"/>
-        <v>202.85000600000001</v>
-      </c>
-      <c r="M67" s="3">
-        <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
     </row>
@@ -5786,27 +5613,24 @@
         <v>17536600</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="3"/>
+      <c r="J68" s="3">
+        <f t="shared" si="4"/>
+        <v>191.07</v>
+      </c>
+      <c r="K68" s="3">
         <f t="shared" si="5"/>
         <v>191.07</v>
       </c>
-      <c r="J68" s="3">
+      <c r="L68" s="3">
+        <f t="shared" si="6"/>
+        <v>202.85000600000001</v>
+      </c>
+      <c r="M68" s="3">
         <f t="shared" si="7"/>
-        <v>191.07</v>
-      </c>
-      <c r="K68" s="3">
-        <f t="shared" si="8"/>
-        <v>191.07</v>
-      </c>
-      <c r="L68" s="3">
-        <f t="shared" si="9"/>
-        <v>202.85000600000001</v>
-      </c>
-      <c r="M68" s="3">
-        <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
     </row>
@@ -5833,27 +5657,24 @@
         <v>25696400</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="3"/>
+      <c r="J69" s="3">
+        <f t="shared" si="4"/>
+        <v>192.01</v>
+      </c>
+      <c r="K69" s="3">
         <f t="shared" si="5"/>
         <v>192.01</v>
       </c>
-      <c r="J69" s="3">
+      <c r="L69" s="3">
+        <f t="shared" si="6"/>
+        <v>202.85000600000001</v>
+      </c>
+      <c r="M69" s="3">
         <f t="shared" si="7"/>
-        <v>192.01</v>
-      </c>
-      <c r="K69" s="3">
-        <f t="shared" si="8"/>
-        <v>192.01</v>
-      </c>
-      <c r="L69" s="3">
-        <f t="shared" si="9"/>
-        <v>202.85000600000001</v>
-      </c>
-      <c r="M69" s="3">
-        <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
     </row>
@@ -5880,27 +5701,24 @@
         <v>28906800</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
+        <f t="shared" si="4"/>
+        <v>192.88</v>
+      </c>
+      <c r="K70" s="3">
         <f t="shared" si="5"/>
         <v>192.88</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
+        <f t="shared" si="6"/>
+        <v>203.38000500000001</v>
+      </c>
+      <c r="M70" s="3">
         <f t="shared" si="7"/>
-        <v>192.88</v>
-      </c>
-      <c r="K70" s="3">
-        <f t="shared" si="8"/>
-        <v>192.88</v>
-      </c>
-      <c r="L70" s="3">
-        <f t="shared" si="9"/>
-        <v>203.38000500000001</v>
-      </c>
-      <c r="M70" s="3">
-        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
@@ -5927,27 +5745,24 @@
         <v>24195800</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="3"/>
+      <c r="J71" s="3">
+        <f t="shared" si="4"/>
+        <v>193.93</v>
+      </c>
+      <c r="K71" s="3">
         <f t="shared" si="5"/>
         <v>193.93</v>
       </c>
-      <c r="J71" s="3">
+      <c r="L71" s="3">
+        <f t="shared" si="6"/>
+        <v>204.14999399999999</v>
+      </c>
+      <c r="M71" s="3">
         <f t="shared" si="7"/>
-        <v>193.93</v>
-      </c>
-      <c r="K71" s="3">
-        <f t="shared" si="8"/>
-        <v>193.93</v>
-      </c>
-      <c r="L71" s="3">
-        <f t="shared" si="9"/>
-        <v>204.14999399999999</v>
-      </c>
-      <c r="M71" s="3">
-        <f t="shared" si="10"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -5974,27 +5789,24 @@
         <v>19439500</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
+        <f t="shared" si="4"/>
+        <v>195.16</v>
+      </c>
+      <c r="K72" s="3">
         <f t="shared" si="5"/>
         <v>195.16</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
+        <f t="shared" si="6"/>
+        <v>204.94000199999999</v>
+      </c>
+      <c r="M72" s="3">
         <f t="shared" si="7"/>
-        <v>195.16</v>
-      </c>
-      <c r="K72" s="3">
-        <f t="shared" si="8"/>
-        <v>195.16</v>
-      </c>
-      <c r="L72" s="3">
-        <f t="shared" si="9"/>
-        <v>204.94000199999999</v>
-      </c>
-      <c r="M72" s="3">
-        <f t="shared" si="10"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -6021,27 +5833,24 @@
         <v>23323000</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
+        <f t="shared" si="4"/>
+        <v>196.53</v>
+      </c>
+      <c r="K73" s="3">
         <f t="shared" si="5"/>
         <v>196.53</v>
       </c>
-      <c r="J73" s="3">
+      <c r="L73" s="3">
+        <f t="shared" si="6"/>
+        <v>207.75</v>
+      </c>
+      <c r="M73" s="3">
         <f t="shared" si="7"/>
-        <v>196.53</v>
-      </c>
-      <c r="K73" s="3">
-        <f t="shared" si="8"/>
-        <v>196.53</v>
-      </c>
-      <c r="L73" s="3">
-        <f t="shared" si="9"/>
-        <v>207.75</v>
-      </c>
-      <c r="M73" s="3">
-        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
     </row>
@@ -6068,27 +5877,24 @@
         <v>17540600</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
+        <f t="shared" si="4"/>
+        <v>198.33</v>
+      </c>
+      <c r="K74" s="3">
         <f t="shared" si="5"/>
         <v>198.33</v>
       </c>
-      <c r="J74" s="3">
+      <c r="L74" s="3">
+        <f t="shared" si="6"/>
+        <v>208.479996</v>
+      </c>
+      <c r="M74" s="3">
         <f t="shared" si="7"/>
-        <v>198.33</v>
-      </c>
-      <c r="K74" s="3">
-        <f t="shared" si="8"/>
-        <v>198.33</v>
-      </c>
-      <c r="L74" s="3">
-        <f t="shared" si="9"/>
-        <v>208.479996</v>
-      </c>
-      <c r="M74" s="3">
-        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
     </row>
@@ -6115,27 +5921,24 @@
         <v>18543200</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
+        <f t="shared" si="4"/>
+        <v>200.16</v>
+      </c>
+      <c r="K75" s="3">
         <f t="shared" si="5"/>
         <v>200.16</v>
       </c>
-      <c r="J75" s="3">
+      <c r="L75" s="3">
+        <f t="shared" si="6"/>
+        <v>208.479996</v>
+      </c>
+      <c r="M75" s="3">
         <f t="shared" si="7"/>
-        <v>200.16</v>
-      </c>
-      <c r="K75" s="3">
-        <f t="shared" si="8"/>
-        <v>200.16</v>
-      </c>
-      <c r="L75" s="3">
-        <f t="shared" si="9"/>
-        <v>208.479996</v>
-      </c>
-      <c r="M75" s="3">
-        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
     </row>
@@ -6162,27 +5965,24 @@
         <v>18649100</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <f t="shared" si="4"/>
+        <v>201.66</v>
+      </c>
+      <c r="K76" s="3">
         <f t="shared" si="5"/>
         <v>201.66</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
+        <f t="shared" si="6"/>
+        <v>208.479996</v>
+      </c>
+      <c r="M76" s="3">
         <f t="shared" si="7"/>
-        <v>201.66</v>
-      </c>
-      <c r="K76" s="3">
-        <f t="shared" si="8"/>
-        <v>201.66</v>
-      </c>
-      <c r="L76" s="3">
-        <f t="shared" si="9"/>
-        <v>208.479996</v>
-      </c>
-      <c r="M76" s="3">
-        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
     </row>
@@ -6209,27 +6009,24 @@
         <v>22204700</v>
       </c>
       <c r="H77" s="4">
+        <f t="shared" ref="H77:H134" si="8">IF(H76&lt;0,IF(J77&lt;=C77,1,H76-1),IF(J77&gt;=D77,-1,H76+1))</f>
+        <v>18</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
+        <f t="shared" ref="J77:J134" si="9">IF(H76&lt;0,MAX(ROUND(K76+M76*(L76-K76),3),C76,C75),MIN(ROUND(K76+M76*(L76-K76),2),D76,D75))</f>
+        <v>202.11999499999999</v>
+      </c>
+      <c r="K77" s="3">
+        <f t="shared" si="5"/>
+        <v>202.11999499999999</v>
+      </c>
+      <c r="L77" s="3">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I77" s="3">
-        <f t="shared" ref="I77:I134" si="11">ROUND(K76+M76*(L76-K76),2)</f>
-        <v>202.89</v>
-      </c>
-      <c r="J77" s="3">
+        <v>208.479996</v>
+      </c>
+      <c r="M77" s="3">
         <f t="shared" si="7"/>
-        <v>202.11999499999999</v>
-      </c>
-      <c r="K77" s="3">
-        <f t="shared" si="8"/>
-        <v>202.11999499999999</v>
-      </c>
-      <c r="L77" s="3">
-        <f t="shared" si="9"/>
-        <v>208.479996</v>
-      </c>
-      <c r="M77" s="3">
-        <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
     </row>
@@ -6256,27 +6053,24 @@
         <v>46534900</v>
       </c>
       <c r="H78" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
+        <f t="shared" si="9"/>
+        <v>202.11999499999999</v>
+      </c>
+      <c r="K78" s="3">
+        <f t="shared" si="5"/>
+        <v>208.479996</v>
+      </c>
+      <c r="L78" s="3">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="I78" s="3">
-        <f t="shared" si="11"/>
-        <v>203.26</v>
-      </c>
-      <c r="J78" s="3">
+        <v>199.11000100000001</v>
+      </c>
+      <c r="M78" s="3">
         <f t="shared" si="7"/>
-        <v>202.11999499999999</v>
-      </c>
-      <c r="K78" s="3">
-        <f t="shared" si="8"/>
-        <v>208.479996</v>
-      </c>
-      <c r="L78" s="3">
-        <f t="shared" si="9"/>
-        <v>199.11000100000001</v>
-      </c>
-      <c r="M78" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -6303,27 +6097,24 @@
         <v>64827300</v>
       </c>
       <c r="H79" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
+        <f t="shared" si="9"/>
+        <v>208.29300000000001</v>
+      </c>
+      <c r="K79" s="3">
+        <f t="shared" si="5"/>
+        <v>199.11000100000001</v>
+      </c>
+      <c r="L79" s="3">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I79" s="3">
-        <f t="shared" si="11"/>
-        <v>208.29</v>
-      </c>
-      <c r="J79" s="3">
+        <v>215.30999800000001</v>
+      </c>
+      <c r="M79" s="3">
         <f t="shared" si="7"/>
-        <v>208.29</v>
-      </c>
-      <c r="K79" s="3">
-        <f t="shared" si="8"/>
-        <v>199.11000100000001</v>
-      </c>
-      <c r="L79" s="3">
-        <f t="shared" si="9"/>
-        <v>215.30999800000001</v>
-      </c>
-      <c r="M79" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -6350,27 +6141,24 @@
         <v>31996300</v>
       </c>
       <c r="H80" s="4">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
+        <f t="shared" si="9"/>
+        <v>199.11000100000001</v>
+      </c>
+      <c r="K80" s="3">
+        <f t="shared" si="5"/>
+        <v>199.11000100000001</v>
+      </c>
+      <c r="L80" s="3">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="I80" s="3">
-        <f t="shared" si="11"/>
-        <v>199.43</v>
-      </c>
-      <c r="J80" s="3">
+        <v>215.30999800000001</v>
+      </c>
+      <c r="M80" s="3">
         <f t="shared" si="7"/>
-        <v>199.11000100000001</v>
-      </c>
-      <c r="K80" s="3">
-        <f t="shared" si="8"/>
-        <v>199.11000100000001</v>
-      </c>
-      <c r="L80" s="3">
-        <f t="shared" si="9"/>
-        <v>215.30999800000001</v>
-      </c>
-      <c r="M80" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -6397,27 +6185,24 @@
         <v>20892400</v>
       </c>
       <c r="H81" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
+        <f t="shared" si="9"/>
+        <v>199.43</v>
+      </c>
+      <c r="K81" s="3">
+        <f t="shared" si="5"/>
+        <v>199.43</v>
+      </c>
+      <c r="L81" s="3">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="I81" s="3">
-        <f t="shared" si="11"/>
-        <v>199.43</v>
-      </c>
-      <c r="J81" s="3">
+        <v>215.30999800000001</v>
+      </c>
+      <c r="M81" s="3">
         <f t="shared" si="7"/>
-        <v>199.43</v>
-      </c>
-      <c r="K81" s="3">
-        <f t="shared" si="8"/>
-        <v>199.43</v>
-      </c>
-      <c r="L81" s="3">
-        <f t="shared" si="9"/>
-        <v>215.30999800000001</v>
-      </c>
-      <c r="M81" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -6444,27 +6229,24 @@
         <v>32443100</v>
       </c>
       <c r="H82" s="4">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <f t="shared" si="9"/>
+        <v>199.75</v>
+      </c>
+      <c r="K82" s="3">
+        <f t="shared" si="5"/>
+        <v>199.75</v>
+      </c>
+      <c r="L82" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="I82" s="3">
-        <f t="shared" si="11"/>
-        <v>199.75</v>
-      </c>
-      <c r="J82" s="3">
+        <v>215.30999800000001</v>
+      </c>
+      <c r="M82" s="3">
         <f t="shared" si="7"/>
-        <v>199.75</v>
-      </c>
-      <c r="K82" s="3">
-        <f t="shared" si="8"/>
-        <v>199.75</v>
-      </c>
-      <c r="L82" s="3">
-        <f t="shared" si="9"/>
-        <v>215.30999800000001</v>
-      </c>
-      <c r="M82" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -6491,27 +6273,24 @@
         <v>38763700</v>
       </c>
       <c r="H83" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
+        <f t="shared" si="9"/>
+        <v>200.06</v>
+      </c>
+      <c r="K83" s="3">
+        <f t="shared" si="5"/>
+        <v>200.06</v>
+      </c>
+      <c r="L83" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" si="11"/>
-        <v>200.06</v>
-      </c>
-      <c r="J83" s="3">
+        <v>215.30999800000001</v>
+      </c>
+      <c r="M83" s="3">
         <f t="shared" si="7"/>
-        <v>200.06</v>
-      </c>
-      <c r="K83" s="3">
-        <f t="shared" si="8"/>
-        <v>200.06</v>
-      </c>
-      <c r="L83" s="3">
-        <f t="shared" si="9"/>
-        <v>215.30999800000001</v>
-      </c>
-      <c r="M83" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -6538,27 +6317,24 @@
         <v>26339500</v>
       </c>
       <c r="H84" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
+        <f t="shared" si="9"/>
+        <v>200.36</v>
+      </c>
+      <c r="K84" s="3">
+        <f t="shared" si="5"/>
+        <v>200.36</v>
+      </c>
+      <c r="L84" s="3">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="I84" s="3">
-        <f t="shared" si="11"/>
-        <v>200.36</v>
-      </c>
-      <c r="J84" s="3">
+        <v>215.30999800000001</v>
+      </c>
+      <c r="M84" s="3">
         <f t="shared" si="7"/>
-        <v>200.36</v>
-      </c>
-      <c r="K84" s="3">
-        <f t="shared" si="8"/>
-        <v>200.36</v>
-      </c>
-      <c r="L84" s="3">
-        <f t="shared" si="9"/>
-        <v>215.30999800000001</v>
-      </c>
-      <c r="M84" s="3">
-        <f t="shared" si="10"/>
         <v>0.02</v>
       </c>
     </row>
@@ -6585,27 +6361,24 @@
         <v>34908600</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" ref="H85:H134" si="12">IF(H84&lt;0,IF(J85&lt;C85,1,H84-1),IF(J85&gt;D85,-1,H84+1))</f>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="I85" s="3">
-        <f t="shared" si="11"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
+        <f t="shared" si="9"/>
         <v>200.66</v>
       </c>
-      <c r="J85" s="3">
-        <f t="shared" ref="J85:J134" si="13">IF(H84&lt;0,MAX(ROUND(K84+M84*(L84-K84),2),C84,C83),MIN(ROUND(K84+M84*(L84-K84),2),D84,D83))</f>
-        <v>200.66</v>
-      </c>
       <c r="K85" s="3">
-        <f t="shared" ref="K85:K134" si="14">IF(H85=-1,MAX(L84,C85),IF(H85=1,MIN(L84,D85),J85))</f>
+        <f t="shared" ref="K85:K134" si="10">IF(H85=-1,MAX(L84,C85),IF(H85=1,MIN(L84,D85),J85))</f>
         <v>215.30999800000001</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" ref="L85:L134" si="15">IF(H85&lt;0,IF(H85=-1,D85,MIN(D85,L84)),IF(H85=1,C85,MAX(C85,L84)))</f>
+        <f t="shared" ref="L85:L134" si="11">IF(H85&lt;0,IF(H85=-1,D85,MIN(D85,L84)),IF(H85=1,C85,MAX(C85,L84)))</f>
         <v>196.66000399999999</v>
       </c>
       <c r="M85" s="3">
-        <f t="shared" ref="M85:M134" si="16">IF(ABS(H85)=1,$B$4,IF(L84=L85,M84,MIN($B$6,M84+$B$5)))</f>
+        <f t="shared" ref="M85:M134" si="12">IF(ABS(H85)=1,$B$4,IF(L84=L85,M84,MIN($B$6,M84+$B$5)))</f>
         <v>0.02</v>
       </c>
     </row>
@@ -6632,27 +6405,24 @@
         <v>41208700</v>
       </c>
       <c r="H86" s="4">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
+        <f t="shared" si="9"/>
+        <v>214.93700000000001</v>
+      </c>
+      <c r="K86" s="3">
+        <f t="shared" si="10"/>
+        <v>214.93700000000001</v>
+      </c>
+      <c r="L86" s="3">
+        <f t="shared" si="11"/>
+        <v>192.770004</v>
+      </c>
+      <c r="M86" s="3">
         <f t="shared" si="12"/>
-        <v>-2</v>
-      </c>
-      <c r="I86" s="3">
-        <f t="shared" si="11"/>
-        <v>214.94</v>
-      </c>
-      <c r="J86" s="3">
-        <f t="shared" si="13"/>
-        <v>214.94</v>
-      </c>
-      <c r="K86" s="3">
-        <f t="shared" si="14"/>
-        <v>214.94</v>
-      </c>
-      <c r="L86" s="3">
-        <f t="shared" si="15"/>
-        <v>192.770004</v>
-      </c>
-      <c r="M86" s="3">
-        <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
@@ -6679,27 +6449,24 @@
         <v>57430600</v>
       </c>
       <c r="H87" s="4">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <f t="shared" si="9"/>
+        <v>214.05</v>
+      </c>
+      <c r="K87" s="3">
+        <f t="shared" si="10"/>
+        <v>214.05</v>
+      </c>
+      <c r="L87" s="3">
+        <f t="shared" si="11"/>
+        <v>182.85000600000001</v>
+      </c>
+      <c r="M87" s="3">
         <f t="shared" si="12"/>
-        <v>-3</v>
-      </c>
-      <c r="I87" s="3">
-        <f t="shared" si="11"/>
-        <v>214.05</v>
-      </c>
-      <c r="J87" s="3">
-        <f t="shared" si="13"/>
-        <v>214.05</v>
-      </c>
-      <c r="K87" s="3">
-        <f t="shared" si="14"/>
-        <v>214.05</v>
-      </c>
-      <c r="L87" s="3">
-        <f t="shared" si="15"/>
-        <v>182.85000600000001</v>
-      </c>
-      <c r="M87" s="3">
-        <f t="shared" si="16"/>
         <v>0.06</v>
       </c>
     </row>
@@ -6726,27 +6493,24 @@
         <v>36529700</v>
       </c>
       <c r="H88" s="4">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
+        <f t="shared" si="9"/>
+        <v>212.178</v>
+      </c>
+      <c r="K88" s="3">
+        <f t="shared" si="10"/>
+        <v>212.178</v>
+      </c>
+      <c r="L88" s="3">
+        <f t="shared" si="11"/>
+        <v>182.85000600000001</v>
+      </c>
+      <c r="M88" s="3">
         <f t="shared" si="12"/>
-        <v>-4</v>
-      </c>
-      <c r="I88" s="3">
-        <f t="shared" si="11"/>
-        <v>212.18</v>
-      </c>
-      <c r="J88" s="3">
-        <f t="shared" si="13"/>
-        <v>212.18</v>
-      </c>
-      <c r="K88" s="3">
-        <f t="shared" si="14"/>
-        <v>212.18</v>
-      </c>
-      <c r="L88" s="3">
-        <f t="shared" si="15"/>
-        <v>182.85000600000001</v>
-      </c>
-      <c r="M88" s="3">
-        <f t="shared" si="16"/>
         <v>0.06</v>
       </c>
     </row>
@@ -6773,27 +6537,24 @@
         <v>26544700</v>
       </c>
       <c r="H89" s="4">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
+        <f t="shared" si="9"/>
+        <v>210.41800000000001</v>
+      </c>
+      <c r="K89" s="3">
+        <f t="shared" si="10"/>
+        <v>210.41800000000001</v>
+      </c>
+      <c r="L89" s="3">
+        <f t="shared" si="11"/>
+        <v>182.85000600000001</v>
+      </c>
+      <c r="M89" s="3">
         <f t="shared" si="12"/>
-        <v>-5</v>
-      </c>
-      <c r="I89" s="3">
-        <f t="shared" si="11"/>
-        <v>210.42</v>
-      </c>
-      <c r="J89" s="3">
-        <f t="shared" si="13"/>
-        <v>210.42</v>
-      </c>
-      <c r="K89" s="3">
-        <f t="shared" si="14"/>
-        <v>210.42</v>
-      </c>
-      <c r="L89" s="3">
-        <f t="shared" si="15"/>
-        <v>182.85000600000001</v>
-      </c>
-      <c r="M89" s="3">
-        <f t="shared" si="16"/>
         <v>0.06</v>
       </c>
     </row>
@@ -6820,27 +6581,24 @@
         <v>33031400</v>
       </c>
       <c r="H90" s="4">
+        <f t="shared" si="8"/>
+        <v>-6</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
+        <f t="shared" si="9"/>
+        <v>208.76400000000001</v>
+      </c>
+      <c r="K90" s="3">
+        <f t="shared" si="10"/>
+        <v>208.76400000000001</v>
+      </c>
+      <c r="L90" s="3">
+        <f t="shared" si="11"/>
+        <v>182.85000600000001</v>
+      </c>
+      <c r="M90" s="3">
         <f t="shared" si="12"/>
-        <v>-6</v>
-      </c>
-      <c r="I90" s="3">
-        <f t="shared" si="11"/>
-        <v>208.77</v>
-      </c>
-      <c r="J90" s="3">
-        <f t="shared" si="13"/>
-        <v>208.77</v>
-      </c>
-      <c r="K90" s="3">
-        <f t="shared" si="14"/>
-        <v>208.77</v>
-      </c>
-      <c r="L90" s="3">
-        <f t="shared" si="15"/>
-        <v>182.85000600000001</v>
-      </c>
-      <c r="M90" s="3">
-        <f t="shared" si="16"/>
         <v>0.06</v>
       </c>
     </row>
@@ -6867,27 +6625,24 @@
         <v>32879100</v>
       </c>
       <c r="H91" s="4">
+        <f t="shared" si="8"/>
+        <v>-7</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
+        <f t="shared" si="9"/>
+        <v>207.209</v>
+      </c>
+      <c r="K91" s="3">
+        <f t="shared" si="10"/>
+        <v>207.209</v>
+      </c>
+      <c r="L91" s="3">
+        <f t="shared" si="11"/>
+        <v>182.85000600000001</v>
+      </c>
+      <c r="M91" s="3">
         <f t="shared" si="12"/>
-        <v>-7</v>
-      </c>
-      <c r="I91" s="3">
-        <f t="shared" si="11"/>
-        <v>207.21</v>
-      </c>
-      <c r="J91" s="3">
-        <f t="shared" si="13"/>
-        <v>207.21</v>
-      </c>
-      <c r="K91" s="3">
-        <f t="shared" si="14"/>
-        <v>207.21</v>
-      </c>
-      <c r="L91" s="3">
-        <f t="shared" si="15"/>
-        <v>182.85000600000001</v>
-      </c>
-      <c r="M91" s="3">
-        <f t="shared" si="16"/>
         <v>0.06</v>
       </c>
     </row>
@@ -6914,27 +6669,24 @@
         <v>38612300</v>
       </c>
       <c r="H92" s="4">
+        <f t="shared" si="8"/>
+        <v>-8</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
+        <f t="shared" si="9"/>
+        <v>205.74700000000001</v>
+      </c>
+      <c r="K92" s="3">
+        <f t="shared" si="10"/>
+        <v>205.74700000000001</v>
+      </c>
+      <c r="L92" s="3">
+        <f t="shared" si="11"/>
+        <v>180.279999</v>
+      </c>
+      <c r="M92" s="3">
         <f t="shared" si="12"/>
-        <v>-8</v>
-      </c>
-      <c r="I92" s="3">
-        <f t="shared" si="11"/>
-        <v>205.75</v>
-      </c>
-      <c r="J92" s="3">
-        <f t="shared" si="13"/>
-        <v>205.75</v>
-      </c>
-      <c r="K92" s="3">
-        <f t="shared" si="14"/>
-        <v>205.75</v>
-      </c>
-      <c r="L92" s="3">
-        <f t="shared" si="15"/>
-        <v>180.279999</v>
-      </c>
-      <c r="M92" s="3">
-        <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
     </row>
@@ -6961,27 +6713,24 @@
         <v>28364800</v>
       </c>
       <c r="H93" s="4">
+        <f t="shared" si="8"/>
+        <v>-9</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
+        <f t="shared" si="9"/>
+        <v>203.71</v>
+      </c>
+      <c r="K93" s="3">
+        <f t="shared" si="10"/>
+        <v>203.71</v>
+      </c>
+      <c r="L93" s="3">
+        <f t="shared" si="11"/>
+        <v>180.279999</v>
+      </c>
+      <c r="M93" s="3">
         <f t="shared" si="12"/>
-        <v>-9</v>
-      </c>
-      <c r="I93" s="3">
-        <f t="shared" si="11"/>
-        <v>203.71</v>
-      </c>
-      <c r="J93" s="3">
-        <f t="shared" si="13"/>
-        <v>203.71</v>
-      </c>
-      <c r="K93" s="3">
-        <f t="shared" si="14"/>
-        <v>203.71</v>
-      </c>
-      <c r="L93" s="3">
-        <f t="shared" si="15"/>
-        <v>180.279999</v>
-      </c>
-      <c r="M93" s="3">
-        <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
     </row>
@@ -7008,27 +6757,24 @@
         <v>29748600</v>
       </c>
       <c r="H94" s="4">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
+        <f t="shared" si="9"/>
+        <v>201.83600000000001</v>
+      </c>
+      <c r="K94" s="3">
+        <f t="shared" si="10"/>
+        <v>201.83600000000001</v>
+      </c>
+      <c r="L94" s="3">
+        <f t="shared" si="11"/>
+        <v>180.279999</v>
+      </c>
+      <c r="M94" s="3">
         <f t="shared" si="12"/>
-        <v>-10</v>
-      </c>
-      <c r="I94" s="3">
-        <f t="shared" si="11"/>
-        <v>201.84</v>
-      </c>
-      <c r="J94" s="3">
-        <f t="shared" si="13"/>
-        <v>201.84</v>
-      </c>
-      <c r="K94" s="3">
-        <f t="shared" si="14"/>
-        <v>201.84</v>
-      </c>
-      <c r="L94" s="3">
-        <f t="shared" si="15"/>
-        <v>180.279999</v>
-      </c>
-      <c r="M94" s="3">
-        <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
     </row>
@@ -7055,27 +6801,24 @@
         <v>36529700</v>
       </c>
       <c r="H95" s="4">
+        <f t="shared" si="8"/>
+        <v>-11</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
+        <f t="shared" si="9"/>
+        <v>200.11199999999999</v>
+      </c>
+      <c r="K95" s="3">
+        <f t="shared" si="10"/>
+        <v>200.11199999999999</v>
+      </c>
+      <c r="L95" s="3">
+        <f t="shared" si="11"/>
+        <v>177.80999800000001</v>
+      </c>
+      <c r="M95" s="3">
         <f t="shared" si="12"/>
-        <v>-11</v>
-      </c>
-      <c r="I95" s="3">
-        <f t="shared" si="11"/>
-        <v>200.12</v>
-      </c>
-      <c r="J95" s="3">
-        <f t="shared" si="13"/>
-        <v>200.12</v>
-      </c>
-      <c r="K95" s="3">
-        <f t="shared" si="14"/>
-        <v>200.12</v>
-      </c>
-      <c r="L95" s="3">
-        <f t="shared" si="15"/>
-        <v>177.80999800000001</v>
-      </c>
-      <c r="M95" s="3">
-        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
     </row>
@@ -7102,27 +6845,24 @@
         <v>23714700</v>
       </c>
       <c r="H96" s="4">
+        <f t="shared" si="8"/>
+        <v>-12</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
+        <f t="shared" si="9"/>
+        <v>197.88200000000001</v>
+      </c>
+      <c r="K96" s="3">
+        <f t="shared" si="10"/>
+        <v>197.88200000000001</v>
+      </c>
+      <c r="L96" s="3">
+        <f t="shared" si="11"/>
+        <v>177.80999800000001</v>
+      </c>
+      <c r="M96" s="3">
         <f t="shared" si="12"/>
-        <v>-12</v>
-      </c>
-      <c r="I96" s="3">
-        <f t="shared" si="11"/>
-        <v>197.89</v>
-      </c>
-      <c r="J96" s="3">
-        <f t="shared" si="13"/>
-        <v>197.89</v>
-      </c>
-      <c r="K96" s="3">
-        <f t="shared" si="14"/>
-        <v>197.89</v>
-      </c>
-      <c r="L96" s="3">
-        <f t="shared" si="15"/>
-        <v>177.80999800000001</v>
-      </c>
-      <c r="M96" s="3">
-        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
     </row>
@@ -7149,27 +6889,24 @@
         <v>27948200</v>
       </c>
       <c r="H97" s="4">
+        <f t="shared" si="8"/>
+        <v>-13</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3">
+        <f t="shared" si="9"/>
+        <v>195.875</v>
+      </c>
+      <c r="K97" s="3">
+        <f t="shared" si="10"/>
+        <v>195.875</v>
+      </c>
+      <c r="L97" s="3">
+        <f t="shared" si="11"/>
+        <v>177.80999800000001</v>
+      </c>
+      <c r="M97" s="3">
         <f t="shared" si="12"/>
-        <v>-13</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" si="11"/>
-        <v>195.88</v>
-      </c>
-      <c r="J97" s="3">
-        <f t="shared" si="13"/>
-        <v>195.88</v>
-      </c>
-      <c r="K97" s="3">
-        <f t="shared" si="14"/>
-        <v>195.88</v>
-      </c>
-      <c r="L97" s="3">
-        <f t="shared" si="15"/>
-        <v>177.80999800000001</v>
-      </c>
-      <c r="M97" s="3">
-        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
     </row>
@@ -7196,27 +6933,24 @@
         <v>28481200</v>
       </c>
       <c r="H98" s="4">
+        <f t="shared" si="8"/>
+        <v>-14</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3">
+        <f t="shared" si="9"/>
+        <v>194.06800000000001</v>
+      </c>
+      <c r="K98" s="3">
+        <f t="shared" si="10"/>
+        <v>194.06800000000001</v>
+      </c>
+      <c r="L98" s="3">
+        <f t="shared" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="M98" s="3">
         <f t="shared" si="12"/>
-        <v>-14</v>
-      </c>
-      <c r="I98" s="3">
-        <f t="shared" si="11"/>
-        <v>194.07</v>
-      </c>
-      <c r="J98" s="3">
-        <f t="shared" si="13"/>
-        <v>194.07</v>
-      </c>
-      <c r="K98" s="3">
-        <f t="shared" si="14"/>
-        <v>194.07</v>
-      </c>
-      <c r="L98" s="3">
-        <f t="shared" si="15"/>
-        <v>176</v>
-      </c>
-      <c r="M98" s="3">
-        <f t="shared" si="16"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -7243,27 +6977,24 @@
         <v>21218400</v>
       </c>
       <c r="H99" s="4">
+        <f t="shared" si="8"/>
+        <v>-15</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3">
+        <f t="shared" si="9"/>
+        <v>191.9</v>
+      </c>
+      <c r="K99" s="3">
+        <f t="shared" si="10"/>
+        <v>191.9</v>
+      </c>
+      <c r="L99" s="3">
+        <f t="shared" si="11"/>
+        <v>176</v>
+      </c>
+      <c r="M99" s="3">
         <f t="shared" si="12"/>
-        <v>-15</v>
-      </c>
-      <c r="I99" s="3">
-        <f t="shared" si="11"/>
-        <v>191.9</v>
-      </c>
-      <c r="J99" s="3">
-        <f t="shared" si="13"/>
-        <v>191.9</v>
-      </c>
-      <c r="K99" s="3">
-        <f t="shared" si="14"/>
-        <v>191.9</v>
-      </c>
-      <c r="L99" s="3">
-        <f t="shared" si="15"/>
-        <v>176</v>
-      </c>
-      <c r="M99" s="3">
-        <f t="shared" si="16"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -7290,27 +7021,24 @@
         <v>27043600</v>
       </c>
       <c r="H100" s="4">
+        <f t="shared" si="8"/>
+        <v>-16</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3">
+        <f t="shared" si="9"/>
+        <v>189.99199999999999</v>
+      </c>
+      <c r="K100" s="3">
+        <f t="shared" si="10"/>
+        <v>189.99199999999999</v>
+      </c>
+      <c r="L100" s="3">
+        <f t="shared" si="11"/>
+        <v>174.990005</v>
+      </c>
+      <c r="M100" s="3">
         <f t="shared" si="12"/>
-        <v>-16</v>
-      </c>
-      <c r="I100" s="3">
-        <f t="shared" si="11"/>
-        <v>189.99</v>
-      </c>
-      <c r="J100" s="3">
-        <f t="shared" si="13"/>
-        <v>189.99</v>
-      </c>
-      <c r="K100" s="3">
-        <f t="shared" si="14"/>
-        <v>189.99</v>
-      </c>
-      <c r="L100" s="3">
-        <f t="shared" si="15"/>
-        <v>174.990005</v>
-      </c>
-      <c r="M100" s="3">
-        <f t="shared" si="16"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -7337,27 +7065,24 @@
         <v>40396100</v>
       </c>
       <c r="H101" s="4">
+        <f t="shared" si="8"/>
+        <v>-17</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3">
+        <f t="shared" si="9"/>
+        <v>187.892</v>
+      </c>
+      <c r="K101" s="3">
+        <f t="shared" si="10"/>
+        <v>187.892</v>
+      </c>
+      <c r="L101" s="3">
+        <f t="shared" si="11"/>
+        <v>170.270004</v>
+      </c>
+      <c r="M101" s="3">
         <f t="shared" si="12"/>
-        <v>-17</v>
-      </c>
-      <c r="I101" s="3">
-        <f t="shared" si="11"/>
-        <v>187.89</v>
-      </c>
-      <c r="J101" s="3">
-        <f t="shared" si="13"/>
-        <v>187.89</v>
-      </c>
-      <c r="K101" s="3">
-        <f t="shared" si="14"/>
-        <v>187.89</v>
-      </c>
-      <c r="L101" s="3">
-        <f t="shared" si="15"/>
-        <v>170.270004</v>
-      </c>
-      <c r="M101" s="3">
-        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
     </row>
@@ -7384,27 +7109,24 @@
         <v>30968000</v>
       </c>
       <c r="H102" s="4">
+        <f t="shared" si="8"/>
+        <v>-18</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3">
+        <f t="shared" si="9"/>
+        <v>185.072</v>
+      </c>
+      <c r="K102" s="3">
+        <f t="shared" si="10"/>
+        <v>185.072</v>
+      </c>
+      <c r="L102" s="3">
+        <f t="shared" si="11"/>
+        <v>170.270004</v>
+      </c>
+      <c r="M102" s="3">
         <f t="shared" si="12"/>
-        <v>-18</v>
-      </c>
-      <c r="I102" s="3">
-        <f t="shared" si="11"/>
-        <v>185.07</v>
-      </c>
-      <c r="J102" s="3">
-        <f t="shared" si="13"/>
-        <v>185.07</v>
-      </c>
-      <c r="K102" s="3">
-        <f t="shared" si="14"/>
-        <v>185.07</v>
-      </c>
-      <c r="L102" s="3">
-        <f t="shared" si="15"/>
-        <v>170.270004</v>
-      </c>
-      <c r="M102" s="3">
-        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
     </row>
@@ -7431,27 +7153,24 @@
         <v>29773400</v>
       </c>
       <c r="H103" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3">
+        <f t="shared" si="9"/>
+        <v>182.70400000000001</v>
+      </c>
+      <c r="K103" s="3">
+        <f t="shared" si="10"/>
+        <v>170.270004</v>
+      </c>
+      <c r="L103" s="3">
+        <f t="shared" si="11"/>
+        <v>184.990005</v>
+      </c>
+      <c r="M103" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I103" s="3">
-        <f t="shared" si="11"/>
-        <v>182.7</v>
-      </c>
-      <c r="J103" s="3">
-        <f t="shared" si="13"/>
-        <v>182.7</v>
-      </c>
-      <c r="K103" s="3">
-        <f t="shared" si="14"/>
-        <v>170.270004</v>
-      </c>
-      <c r="L103" s="3">
-        <f t="shared" si="15"/>
-        <v>184.990005</v>
-      </c>
-      <c r="M103" s="3">
-        <f t="shared" si="16"/>
         <v>0.02</v>
       </c>
     </row>
@@ -7478,27 +7197,24 @@
         <v>22526300</v>
       </c>
       <c r="H104" s="4">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3">
+        <f t="shared" si="9"/>
+        <v>170.56</v>
+      </c>
+      <c r="K104" s="3">
+        <f t="shared" si="10"/>
+        <v>170.56</v>
+      </c>
+      <c r="L104" s="3">
+        <f t="shared" si="11"/>
+        <v>185.470001</v>
+      </c>
+      <c r="M104" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="I104" s="3">
-        <f t="shared" si="11"/>
-        <v>170.56</v>
-      </c>
-      <c r="J104" s="3">
-        <f t="shared" si="13"/>
-        <v>170.56</v>
-      </c>
-      <c r="K104" s="3">
-        <f t="shared" si="14"/>
-        <v>170.56</v>
-      </c>
-      <c r="L104" s="3">
-        <f t="shared" si="15"/>
-        <v>185.470001</v>
-      </c>
-      <c r="M104" s="3">
-        <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
@@ -7525,27 +7241,24 @@
         <v>30684400</v>
       </c>
       <c r="H105" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3">
+        <f t="shared" si="9"/>
+        <v>171.16</v>
+      </c>
+      <c r="K105" s="3">
+        <f t="shared" si="10"/>
+        <v>171.16</v>
+      </c>
+      <c r="L105" s="3">
+        <f t="shared" si="11"/>
+        <v>191.91999799999999</v>
+      </c>
+      <c r="M105" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="I105" s="3">
-        <f t="shared" si="11"/>
-        <v>171.16</v>
-      </c>
-      <c r="J105" s="3">
-        <f t="shared" si="13"/>
-        <v>171.16</v>
-      </c>
-      <c r="K105" s="3">
-        <f t="shared" si="14"/>
-        <v>171.16</v>
-      </c>
-      <c r="L105" s="3">
-        <f t="shared" si="15"/>
-        <v>191.91999799999999</v>
-      </c>
-      <c r="M105" s="3">
-        <f t="shared" si="16"/>
         <v>0.06</v>
       </c>
     </row>
@@ -7572,27 +7285,24 @@
         <v>26220900</v>
       </c>
       <c r="H106" s="4">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3">
+        <f t="shared" si="9"/>
+        <v>172.41</v>
+      </c>
+      <c r="K106" s="3">
+        <f t="shared" si="10"/>
+        <v>172.41</v>
+      </c>
+      <c r="L106" s="3">
+        <f t="shared" si="11"/>
+        <v>195.36999499999999</v>
+      </c>
+      <c r="M106" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="I106" s="3">
-        <f t="shared" si="11"/>
-        <v>172.41</v>
-      </c>
-      <c r="J106" s="3">
-        <f t="shared" si="13"/>
-        <v>172.41</v>
-      </c>
-      <c r="K106" s="3">
-        <f t="shared" si="14"/>
-        <v>172.41</v>
-      </c>
-      <c r="L106" s="3">
-        <f t="shared" si="15"/>
-        <v>195.36999499999999</v>
-      </c>
-      <c r="M106" s="3">
-        <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
     </row>
@@ -7619,27 +7329,24 @@
         <v>26932900</v>
       </c>
       <c r="H107" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3">
+        <f t="shared" si="9"/>
+        <v>174.25</v>
+      </c>
+      <c r="K107" s="3">
+        <f t="shared" si="10"/>
+        <v>174.25</v>
+      </c>
+      <c r="L107" s="3">
+        <f t="shared" si="11"/>
+        <v>196</v>
+      </c>
+      <c r="M107" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="I107" s="3">
-        <f t="shared" si="11"/>
-        <v>174.25</v>
-      </c>
-      <c r="J107" s="3">
-        <f t="shared" si="13"/>
-        <v>174.25</v>
-      </c>
-      <c r="K107" s="3">
-        <f t="shared" si="14"/>
-        <v>174.25</v>
-      </c>
-      <c r="L107" s="3">
-        <f t="shared" si="15"/>
-        <v>196</v>
-      </c>
-      <c r="M107" s="3">
-        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
     </row>
@@ -7666,27 +7373,24 @@
         <v>18253200</v>
       </c>
       <c r="H108" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3">
+        <f t="shared" si="9"/>
+        <v>176.43</v>
+      </c>
+      <c r="K108" s="3">
+        <f t="shared" si="10"/>
+        <v>176.43</v>
+      </c>
+      <c r="L108" s="3">
+        <f t="shared" si="11"/>
+        <v>196</v>
+      </c>
+      <c r="M108" s="3">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="I108" s="3">
-        <f t="shared" si="11"/>
-        <v>176.43</v>
-      </c>
-      <c r="J108" s="3">
-        <f t="shared" si="13"/>
-        <v>176.43</v>
-      </c>
-      <c r="K108" s="3">
-        <f t="shared" si="14"/>
-        <v>176.43</v>
-      </c>
-      <c r="L108" s="3">
-        <f t="shared" si="15"/>
-        <v>196</v>
-      </c>
-      <c r="M108" s="3">
-        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
     </row>
@@ -7713,27 +7417,24 @@
         <v>21674600</v>
       </c>
       <c r="H109" s="4">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3">
+        <f t="shared" si="9"/>
+        <v>178.39</v>
+      </c>
+      <c r="K109" s="3">
+        <f t="shared" si="10"/>
+        <v>178.39</v>
+      </c>
+      <c r="L109" s="3">
+        <f t="shared" si="11"/>
+        <v>196.78999300000001</v>
+      </c>
+      <c r="M109" s="3">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="I109" s="3">
-        <f t="shared" si="11"/>
-        <v>178.39</v>
-      </c>
-      <c r="J109" s="3">
-        <f t="shared" si="13"/>
-        <v>178.39</v>
-      </c>
-      <c r="K109" s="3">
-        <f t="shared" si="14"/>
-        <v>178.39</v>
-      </c>
-      <c r="L109" s="3">
-        <f t="shared" si="15"/>
-        <v>196.78999300000001</v>
-      </c>
-      <c r="M109" s="3">
-        <f t="shared" si="16"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -7760,27 +7461,24 @@
         <v>18761500</v>
       </c>
       <c r="H110" s="4">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3">
+        <f t="shared" si="9"/>
+        <v>180.6</v>
+      </c>
+      <c r="K110" s="3">
+        <f t="shared" si="10"/>
+        <v>180.6</v>
+      </c>
+      <c r="L110" s="3">
+        <f t="shared" si="11"/>
+        <v>196.78999300000001</v>
+      </c>
+      <c r="M110" s="3">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="I110" s="3">
-        <f t="shared" si="11"/>
-        <v>180.6</v>
-      </c>
-      <c r="J110" s="3">
-        <f t="shared" si="13"/>
-        <v>180.6</v>
-      </c>
-      <c r="K110" s="3">
-        <f t="shared" si="14"/>
-        <v>180.6</v>
-      </c>
-      <c r="L110" s="3">
-        <f t="shared" si="15"/>
-        <v>196.78999300000001</v>
-      </c>
-      <c r="M110" s="3">
-        <f t="shared" si="16"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -7807,27 +7505,24 @@
         <v>14669100</v>
       </c>
       <c r="H111" s="4">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3">
+        <f t="shared" si="9"/>
+        <v>182.54</v>
+      </c>
+      <c r="K111" s="3">
+        <f t="shared" si="10"/>
+        <v>182.54</v>
+      </c>
+      <c r="L111" s="3">
+        <f t="shared" si="11"/>
+        <v>196.78999300000001</v>
+      </c>
+      <c r="M111" s="3">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="I111" s="3">
-        <f t="shared" si="11"/>
-        <v>182.54</v>
-      </c>
-      <c r="J111" s="3">
-        <f t="shared" si="13"/>
-        <v>182.54</v>
-      </c>
-      <c r="K111" s="3">
-        <f t="shared" si="14"/>
-        <v>182.54</v>
-      </c>
-      <c r="L111" s="3">
-        <f t="shared" si="15"/>
-        <v>196.78999300000001</v>
-      </c>
-      <c r="M111" s="3">
-        <f t="shared" si="16"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -7854,27 +7549,24 @@
         <v>26551000</v>
       </c>
       <c r="H112" s="4">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3">
+        <f t="shared" si="9"/>
+        <v>184.25</v>
+      </c>
+      <c r="K112" s="3">
+        <f t="shared" si="10"/>
+        <v>184.25</v>
+      </c>
+      <c r="L112" s="3">
+        <f t="shared" si="11"/>
+        <v>200.28999300000001</v>
+      </c>
+      <c r="M112" s="3">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="I112" s="3">
-        <f t="shared" si="11"/>
-        <v>184.25</v>
-      </c>
-      <c r="J112" s="3">
-        <f t="shared" si="13"/>
-        <v>184.25</v>
-      </c>
-      <c r="K112" s="3">
-        <f t="shared" si="14"/>
-        <v>184.25</v>
-      </c>
-      <c r="L112" s="3">
-        <f t="shared" si="15"/>
-        <v>200.28999300000001</v>
-      </c>
-      <c r="M112" s="3">
-        <f t="shared" si="16"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -7901,27 +7593,24 @@
         <v>21124200</v>
       </c>
       <c r="H113" s="4">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3">
+        <f t="shared" si="9"/>
+        <v>186.5</v>
+      </c>
+      <c r="K113" s="3">
+        <f t="shared" si="10"/>
+        <v>186.5</v>
+      </c>
+      <c r="L113" s="3">
+        <f t="shared" si="11"/>
+        <v>200.28999300000001</v>
+      </c>
+      <c r="M113" s="3">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="I113" s="3">
-        <f t="shared" si="11"/>
-        <v>186.5</v>
-      </c>
-      <c r="J113" s="3">
-        <f t="shared" si="13"/>
-        <v>186.5</v>
-      </c>
-      <c r="K113" s="3">
-        <f t="shared" si="14"/>
-        <v>186.5</v>
-      </c>
-      <c r="L113" s="3">
-        <f t="shared" si="15"/>
-        <v>200.28999300000001</v>
-      </c>
-      <c r="M113" s="3">
-        <f t="shared" si="16"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -7948,27 +7637,24 @@
         <v>21514000</v>
       </c>
       <c r="H114" s="4">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3">
+        <f t="shared" si="9"/>
+        <v>188.43</v>
+      </c>
+      <c r="K114" s="3">
+        <f t="shared" si="10"/>
+        <v>188.43</v>
+      </c>
+      <c r="L114" s="3">
+        <f t="shared" si="11"/>
+        <v>200.61000100000001</v>
+      </c>
+      <c r="M114" s="3">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="I114" s="3">
-        <f t="shared" si="11"/>
-        <v>188.43</v>
-      </c>
-      <c r="J114" s="3">
-        <f t="shared" si="13"/>
-        <v>188.43</v>
-      </c>
-      <c r="K114" s="3">
-        <f t="shared" si="14"/>
-        <v>188.43</v>
-      </c>
-      <c r="L114" s="3">
-        <f t="shared" si="15"/>
-        <v>200.61000100000001</v>
-      </c>
-      <c r="M114" s="3">
-        <f t="shared" si="16"/>
         <v>0.16</v>
       </c>
     </row>
@@ -7995,27 +7681,24 @@
         <v>47800600</v>
       </c>
       <c r="H115" s="4">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3">
+        <f t="shared" si="9"/>
+        <v>190.38</v>
+      </c>
+      <c r="K115" s="3">
+        <f t="shared" si="10"/>
+        <v>190.38</v>
+      </c>
+      <c r="L115" s="3">
+        <f t="shared" si="11"/>
+        <v>200.85000600000001</v>
+      </c>
+      <c r="M115" s="3">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="I115" s="3">
-        <f t="shared" si="11"/>
-        <v>190.38</v>
-      </c>
-      <c r="J115" s="3">
-        <f t="shared" si="13"/>
-        <v>190.38</v>
-      </c>
-      <c r="K115" s="3">
-        <f t="shared" si="14"/>
-        <v>190.38</v>
-      </c>
-      <c r="L115" s="3">
-        <f t="shared" si="15"/>
-        <v>200.85000600000001</v>
-      </c>
-      <c r="M115" s="3">
-        <f t="shared" si="16"/>
         <v>0.18</v>
       </c>
     </row>
@@ -8042,27 +7725,24 @@
         <v>18220400</v>
       </c>
       <c r="H116" s="4">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3">
+        <f t="shared" si="9"/>
+        <v>192.26</v>
+      </c>
+      <c r="K116" s="3">
+        <f t="shared" si="10"/>
+        <v>192.26</v>
+      </c>
+      <c r="L116" s="3">
+        <f t="shared" si="11"/>
+        <v>200.85000600000001</v>
+      </c>
+      <c r="M116" s="3">
         <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="I116" s="3">
-        <f t="shared" si="11"/>
-        <v>192.26</v>
-      </c>
-      <c r="J116" s="3">
-        <f t="shared" si="13"/>
-        <v>192.26</v>
-      </c>
-      <c r="K116" s="3">
-        <f t="shared" si="14"/>
-        <v>192.26</v>
-      </c>
-      <c r="L116" s="3">
-        <f t="shared" si="15"/>
-        <v>200.85000600000001</v>
-      </c>
-      <c r="M116" s="3">
-        <f t="shared" si="16"/>
         <v>0.18</v>
       </c>
     </row>
@@ -8089,27 +7769,24 @@
         <v>21070300</v>
       </c>
       <c r="H117" s="4">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3">
+        <f t="shared" si="9"/>
+        <v>193.81</v>
+      </c>
+      <c r="K117" s="3">
+        <f t="shared" si="10"/>
+        <v>193.81</v>
+      </c>
+      <c r="L117" s="3">
+        <f t="shared" si="11"/>
+        <v>200.85000600000001</v>
+      </c>
+      <c r="M117" s="3">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="I117" s="3">
-        <f t="shared" si="11"/>
-        <v>193.81</v>
-      </c>
-      <c r="J117" s="3">
-        <f t="shared" si="13"/>
-        <v>193.81</v>
-      </c>
-      <c r="K117" s="3">
-        <f t="shared" si="14"/>
-        <v>193.81</v>
-      </c>
-      <c r="L117" s="3">
-        <f t="shared" si="15"/>
-        <v>200.85000600000001</v>
-      </c>
-      <c r="M117" s="3">
-        <f t="shared" si="16"/>
         <v>0.18</v>
       </c>
     </row>
@@ -8136,27 +7813,24 @@
         <v>26067500</v>
       </c>
       <c r="H118" s="4">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3">
+        <f t="shared" si="9"/>
+        <v>195.08</v>
+      </c>
+      <c r="K118" s="3">
+        <f t="shared" si="10"/>
+        <v>195.08</v>
+      </c>
+      <c r="L118" s="3">
+        <f t="shared" si="11"/>
+        <v>200.990005</v>
+      </c>
+      <c r="M118" s="3">
         <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="I118" s="3">
-        <f t="shared" si="11"/>
-        <v>195.08</v>
-      </c>
-      <c r="J118" s="3">
-        <f t="shared" si="13"/>
-        <v>195.08</v>
-      </c>
-      <c r="K118" s="3">
-        <f t="shared" si="14"/>
-        <v>195.08</v>
-      </c>
-      <c r="L118" s="3">
-        <f t="shared" si="15"/>
-        <v>200.990005</v>
-      </c>
-      <c r="M118" s="3">
-        <f t="shared" si="16"/>
         <v>0.19999999999999998</v>
       </c>
     </row>
@@ -8183,27 +7857,24 @@
         <v>20899700</v>
       </c>
       <c r="H119" s="4">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3">
+        <f t="shared" si="9"/>
+        <v>195.28999300000001</v>
+      </c>
+      <c r="K119" s="3">
+        <f t="shared" si="10"/>
+        <v>195.28999300000001</v>
+      </c>
+      <c r="L119" s="3">
+        <f t="shared" si="11"/>
+        <v>201.570007</v>
+      </c>
+      <c r="M119" s="3">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="I119" s="3">
-        <f t="shared" si="11"/>
-        <v>196.26</v>
-      </c>
-      <c r="J119" s="3">
-        <f t="shared" si="13"/>
-        <v>195.28999300000001</v>
-      </c>
-      <c r="K119" s="3">
-        <f t="shared" si="14"/>
-        <v>195.28999300000001</v>
-      </c>
-      <c r="L119" s="3">
-        <f t="shared" si="15"/>
-        <v>201.570007</v>
-      </c>
-      <c r="M119" s="3">
-        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
     </row>
@@ -8230,27 +7901,24 @@
         <v>31110600</v>
       </c>
       <c r="H120" s="4">
+        <f>IF(H119&lt;0,IF(J120&lt;=C120,1,H119-1),IF(J120&gt;=D120,-1,H119+1))</f>
+        <v>18</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3">
+        <f t="shared" si="9"/>
+        <v>196.55</v>
+      </c>
+      <c r="K120" s="3">
+        <f t="shared" si="10"/>
+        <v>196.55</v>
+      </c>
+      <c r="L120" s="3">
+        <f t="shared" si="11"/>
+        <v>201.570007</v>
+      </c>
+      <c r="M120" s="3">
         <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="I120" s="3">
-        <f t="shared" si="11"/>
-        <v>196.55</v>
-      </c>
-      <c r="J120" s="3">
-        <f t="shared" si="13"/>
-        <v>196.55</v>
-      </c>
-      <c r="K120" s="3">
-        <f t="shared" si="14"/>
-        <v>196.55</v>
-      </c>
-      <c r="L120" s="3">
-        <f t="shared" si="15"/>
-        <v>201.570007</v>
-      </c>
-      <c r="M120" s="3">
-        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
     </row>
@@ -8277,27 +7945,24 @@
         <v>27316700</v>
       </c>
       <c r="H121" s="4">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3">
+        <f t="shared" si="9"/>
+        <v>197.050003</v>
+      </c>
+      <c r="K121" s="3">
+        <f t="shared" si="10"/>
+        <v>197.050003</v>
+      </c>
+      <c r="L121" s="3">
+        <f t="shared" si="11"/>
+        <v>204.490005</v>
+      </c>
+      <c r="M121" s="3">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="I121" s="3">
-        <f t="shared" si="11"/>
-        <v>197.55</v>
-      </c>
-      <c r="J121" s="3">
-        <f t="shared" si="13"/>
-        <v>197.050003</v>
-      </c>
-      <c r="K121" s="3">
-        <f t="shared" si="14"/>
-        <v>197.050003</v>
-      </c>
-      <c r="L121" s="3">
-        <f t="shared" si="15"/>
-        <v>204.490005</v>
-      </c>
-      <c r="M121" s="3">
-        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
     </row>
@@ -8324,27 +7989,24 @@
         <v>16935200</v>
       </c>
       <c r="H122" s="4">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3">
+        <f t="shared" si="9"/>
+        <v>197.050003</v>
+      </c>
+      <c r="K122" s="3">
+        <f t="shared" si="10"/>
+        <v>197.050003</v>
+      </c>
+      <c r="L122" s="3">
+        <f t="shared" si="11"/>
+        <v>204.490005</v>
+      </c>
+      <c r="M122" s="3">
         <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="I122" s="3">
-        <f t="shared" si="11"/>
-        <v>198.54</v>
-      </c>
-      <c r="J122" s="3">
-        <f t="shared" si="13"/>
-        <v>197.050003</v>
-      </c>
-      <c r="K122" s="3">
-        <f t="shared" si="14"/>
-        <v>197.050003</v>
-      </c>
-      <c r="L122" s="3">
-        <f t="shared" si="15"/>
-        <v>204.490005</v>
-      </c>
-      <c r="M122" s="3">
-        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
     </row>
@@ -8371,27 +8033,24 @@
         <v>11362000</v>
       </c>
       <c r="H123" s="4">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3">
+        <f t="shared" si="9"/>
+        <v>198.54</v>
+      </c>
+      <c r="K123" s="3">
+        <f t="shared" si="10"/>
+        <v>198.54</v>
+      </c>
+      <c r="L123" s="3">
+        <f t="shared" si="11"/>
+        <v>204.490005</v>
+      </c>
+      <c r="M123" s="3">
         <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="I123" s="3">
-        <f t="shared" si="11"/>
-        <v>198.54</v>
-      </c>
-      <c r="J123" s="3">
-        <f t="shared" si="13"/>
-        <v>198.54</v>
-      </c>
-      <c r="K123" s="3">
-        <f t="shared" si="14"/>
-        <v>198.54</v>
-      </c>
-      <c r="L123" s="3">
-        <f t="shared" si="15"/>
-        <v>204.490005</v>
-      </c>
-      <c r="M123" s="3">
-        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
     </row>
@@ -8418,27 +8077,24 @@
         <v>17265500</v>
       </c>
       <c r="H124" s="4">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3">
+        <f t="shared" si="9"/>
+        <v>199.73</v>
+      </c>
+      <c r="K124" s="3">
+        <f t="shared" si="10"/>
+        <v>199.73</v>
+      </c>
+      <c r="L124" s="3">
+        <f t="shared" si="11"/>
+        <v>205.08000200000001</v>
+      </c>
+      <c r="M124" s="3">
         <f t="shared" si="12"/>
-        <v>22</v>
-      </c>
-      <c r="I124" s="3">
-        <f t="shared" si="11"/>
-        <v>199.73</v>
-      </c>
-      <c r="J124" s="3">
-        <f t="shared" si="13"/>
-        <v>199.73</v>
-      </c>
-      <c r="K124" s="3">
-        <f t="shared" si="14"/>
-        <v>199.73</v>
-      </c>
-      <c r="L124" s="3">
-        <f t="shared" si="15"/>
-        <v>205.08000200000001</v>
-      </c>
-      <c r="M124" s="3">
-        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
     </row>
@@ -8465,27 +8121,24 @@
         <v>25338600</v>
       </c>
       <c r="H125" s="4">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3">
+        <f t="shared" si="9"/>
+        <v>200.8</v>
+      </c>
+      <c r="K125" s="3">
+        <f t="shared" si="10"/>
+        <v>205.08000200000001</v>
+      </c>
+      <c r="L125" s="3">
+        <f t="shared" si="11"/>
+        <v>198.41000399999999</v>
+      </c>
+      <c r="M125" s="3">
         <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
-      <c r="I125" s="3">
-        <f t="shared" si="11"/>
-        <v>200.8</v>
-      </c>
-      <c r="J125" s="3">
-        <f t="shared" si="13"/>
-        <v>200.8</v>
-      </c>
-      <c r="K125" s="3">
-        <f t="shared" si="14"/>
-        <v>205.08000200000001</v>
-      </c>
-      <c r="L125" s="3">
-        <f t="shared" si="15"/>
-        <v>198.41000399999999</v>
-      </c>
-      <c r="M125" s="3">
-        <f t="shared" si="16"/>
         <v>0.02</v>
       </c>
     </row>
@@ -8512,27 +8165,24 @@
         <v>20578000</v>
       </c>
       <c r="H126" s="4">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3">
+        <f t="shared" si="9"/>
+        <v>205.08000200000001</v>
+      </c>
+      <c r="K126" s="3">
+        <f t="shared" si="10"/>
+        <v>205.08000200000001</v>
+      </c>
+      <c r="L126" s="3">
+        <f t="shared" si="11"/>
+        <v>198.41000399999999</v>
+      </c>
+      <c r="M126" s="3">
         <f t="shared" si="12"/>
-        <v>-2</v>
-      </c>
-      <c r="I126" s="3">
-        <f t="shared" si="11"/>
-        <v>204.95</v>
-      </c>
-      <c r="J126" s="3">
-        <f t="shared" si="13"/>
-        <v>205.08000200000001</v>
-      </c>
-      <c r="K126" s="3">
-        <f t="shared" si="14"/>
-        <v>205.08000200000001</v>
-      </c>
-      <c r="L126" s="3">
-        <f t="shared" si="15"/>
-        <v>198.41000399999999</v>
-      </c>
-      <c r="M126" s="3">
-        <f t="shared" si="16"/>
         <v>0.02</v>
       </c>
     </row>
@@ -8559,27 +8209,24 @@
         <v>17897100</v>
       </c>
       <c r="H127" s="4">
+        <f t="shared" si="8"/>
+        <v>-3</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3">
+        <f t="shared" si="9"/>
+        <v>204.947</v>
+      </c>
+      <c r="K127" s="3">
+        <f t="shared" si="10"/>
+        <v>204.947</v>
+      </c>
+      <c r="L127" s="3">
+        <f t="shared" si="11"/>
+        <v>198.41000399999999</v>
+      </c>
+      <c r="M127" s="3">
         <f t="shared" si="12"/>
-        <v>-3</v>
-      </c>
-      <c r="I127" s="3">
-        <f t="shared" si="11"/>
-        <v>204.95</v>
-      </c>
-      <c r="J127" s="3">
-        <f t="shared" si="13"/>
-        <v>204.95</v>
-      </c>
-      <c r="K127" s="3">
-        <f t="shared" si="14"/>
-        <v>204.95</v>
-      </c>
-      <c r="L127" s="3">
-        <f t="shared" si="15"/>
-        <v>198.41000399999999</v>
-      </c>
-      <c r="M127" s="3">
-        <f t="shared" si="16"/>
         <v>0.02</v>
       </c>
     </row>
@@ -8606,27 +8253,24 @@
         <v>20191800</v>
       </c>
       <c r="H128" s="4">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3">
+        <f t="shared" si="9"/>
+        <v>204.816</v>
+      </c>
+      <c r="K128" s="3">
+        <f t="shared" si="10"/>
+        <v>204.816</v>
+      </c>
+      <c r="L128" s="3">
+        <f t="shared" si="11"/>
+        <v>198.41000399999999</v>
+      </c>
+      <c r="M128" s="3">
         <f t="shared" si="12"/>
-        <v>-4</v>
-      </c>
-      <c r="I128" s="3">
-        <f t="shared" si="11"/>
-        <v>204.82</v>
-      </c>
-      <c r="J128" s="3">
-        <f t="shared" si="13"/>
-        <v>204.82</v>
-      </c>
-      <c r="K128" s="3">
-        <f t="shared" si="14"/>
-        <v>204.82</v>
-      </c>
-      <c r="L128" s="3">
-        <f t="shared" si="15"/>
-        <v>198.41000399999999</v>
-      </c>
-      <c r="M128" s="3">
-        <f t="shared" si="16"/>
         <v>0.02</v>
       </c>
     </row>
@@ -8653,27 +8297,24 @@
         <v>17595200</v>
       </c>
       <c r="H129" s="4">
+        <f t="shared" si="8"/>
+        <v>-5</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3">
+        <f t="shared" si="9"/>
+        <v>204.68799999999999</v>
+      </c>
+      <c r="K129" s="3">
+        <f t="shared" si="10"/>
+        <v>204.68799999999999</v>
+      </c>
+      <c r="L129" s="3">
+        <f t="shared" si="11"/>
+        <v>198.41000399999999</v>
+      </c>
+      <c r="M129" s="3">
         <f t="shared" si="12"/>
-        <v>-5</v>
-      </c>
-      <c r="I129" s="3">
-        <f t="shared" si="11"/>
-        <v>204.69</v>
-      </c>
-      <c r="J129" s="3">
-        <f t="shared" si="13"/>
-        <v>204.69</v>
-      </c>
-      <c r="K129" s="3">
-        <f t="shared" si="14"/>
-        <v>204.69</v>
-      </c>
-      <c r="L129" s="3">
-        <f t="shared" si="15"/>
-        <v>198.41000399999999</v>
-      </c>
-      <c r="M129" s="3">
-        <f t="shared" si="16"/>
         <v>0.02</v>
       </c>
     </row>
@@ -8700,27 +8341,24 @@
         <v>16947400</v>
       </c>
       <c r="H130" s="4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3">
+        <f t="shared" si="9"/>
+        <v>204.56200000000001</v>
+      </c>
+      <c r="K130" s="3">
+        <f t="shared" si="10"/>
+        <v>198.41000399999999</v>
+      </c>
+      <c r="L130" s="3">
+        <f t="shared" si="11"/>
+        <v>205.86999499999999</v>
+      </c>
+      <c r="M130" s="3">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I130" s="3">
-        <f t="shared" si="11"/>
-        <v>204.56</v>
-      </c>
-      <c r="J130" s="3">
-        <f t="shared" si="13"/>
-        <v>204.56</v>
-      </c>
-      <c r="K130" s="3">
-        <f t="shared" si="14"/>
-        <v>198.41000399999999</v>
-      </c>
-      <c r="L130" s="3">
-        <f t="shared" si="15"/>
-        <v>205.86999499999999</v>
-      </c>
-      <c r="M130" s="3">
-        <f t="shared" si="16"/>
         <v>0.02</v>
       </c>
     </row>
@@ -8747,27 +8385,24 @@
         <v>16866800</v>
       </c>
       <c r="H131" s="4">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3">
+        <f t="shared" si="9"/>
+        <v>198.56</v>
+      </c>
+      <c r="K131" s="3">
+        <f t="shared" si="10"/>
+        <v>198.56</v>
+      </c>
+      <c r="L131" s="3">
+        <f t="shared" si="11"/>
+        <v>206.11000100000001</v>
+      </c>
+      <c r="M131" s="3">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="I131" s="3">
-        <f t="shared" si="11"/>
-        <v>198.56</v>
-      </c>
-      <c r="J131" s="3">
-        <f t="shared" si="13"/>
-        <v>198.56</v>
-      </c>
-      <c r="K131" s="3">
-        <f t="shared" si="14"/>
-        <v>198.56</v>
-      </c>
-      <c r="L131" s="3">
-        <f t="shared" si="15"/>
-        <v>206.11000100000001</v>
-      </c>
-      <c r="M131" s="3">
-        <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
@@ -8794,27 +8429,24 @@
         <v>14107500</v>
       </c>
       <c r="H132" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3">
+        <f t="shared" si="9"/>
+        <v>198.86</v>
+      </c>
+      <c r="K132" s="3">
+        <f t="shared" si="10"/>
+        <v>198.86</v>
+      </c>
+      <c r="L132" s="3">
+        <f t="shared" si="11"/>
+        <v>206.11000100000001</v>
+      </c>
+      <c r="M132" s="3">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="I132" s="3">
-        <f t="shared" si="11"/>
-        <v>198.86</v>
-      </c>
-      <c r="J132" s="3">
-        <f t="shared" si="13"/>
-        <v>198.86</v>
-      </c>
-      <c r="K132" s="3">
-        <f t="shared" si="14"/>
-        <v>198.86</v>
-      </c>
-      <c r="L132" s="3">
-        <f t="shared" si="15"/>
-        <v>206.11000100000001</v>
-      </c>
-      <c r="M132" s="3">
-        <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
@@ -8841,27 +8473,24 @@
         <v>18582200</v>
       </c>
       <c r="H133" s="4">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3">
+        <f t="shared" si="9"/>
+        <v>199.15</v>
+      </c>
+      <c r="K133" s="3">
+        <f t="shared" si="10"/>
+        <v>199.15</v>
+      </c>
+      <c r="L133" s="3">
+        <f t="shared" si="11"/>
+        <v>206.11000100000001</v>
+      </c>
+      <c r="M133" s="3">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="I133" s="3">
-        <f t="shared" si="11"/>
-        <v>199.15</v>
-      </c>
-      <c r="J133" s="3">
-        <f t="shared" si="13"/>
-        <v>199.15</v>
-      </c>
-      <c r="K133" s="3">
-        <f t="shared" si="14"/>
-        <v>199.15</v>
-      </c>
-      <c r="L133" s="3">
-        <f t="shared" si="15"/>
-        <v>206.11000100000001</v>
-      </c>
-      <c r="M133" s="3">
-        <f t="shared" si="16"/>
         <v>0.04</v>
       </c>
     </row>
@@ -8888,27 +8517,24 @@
         <v>20910200</v>
       </c>
       <c r="H134" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3">
+        <f t="shared" si="9"/>
+        <v>199.43</v>
+      </c>
+      <c r="K134" s="3">
+        <f t="shared" si="10"/>
+        <v>199.43</v>
+      </c>
+      <c r="L134" s="3">
+        <f t="shared" si="11"/>
+        <v>206.5</v>
+      </c>
+      <c r="M134" s="3">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="I134" s="3">
-        <f t="shared" si="11"/>
-        <v>199.43</v>
-      </c>
-      <c r="J134" s="3">
-        <f t="shared" si="13"/>
-        <v>199.43</v>
-      </c>
-      <c r="K134" s="3">
-        <f t="shared" si="14"/>
-        <v>199.43</v>
-      </c>
-      <c r="L134" s="3">
-        <f t="shared" si="15"/>
-        <v>206.5</v>
-      </c>
-      <c r="M134" s="3">
-        <f t="shared" si="16"/>
         <v>0.06</v>
       </c>
     </row>
